--- a/Matlab Grading 2021-irene.xlsx
+++ b/Matlab Grading 2021-irene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,134 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="D32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Their answer is 201</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The exact error is not reported
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">They say alpha is the learning rate and it is  equal to 0. They do not mention that epsilon is the random action rate  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">They say “The initial value of the learning update rate α is 0.
+This would mean that the value function is never updated and thus the algorithm never learns.”
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Their answer c: “The value of _x000f_ should be between 0 and 1. But exclude 0 and 1. However, the
+current _x000f_ is 0, which means that the learning algorithm does not learn anything.”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">They say: “• "assignment_verify.m" reports following functions are not defined or empty: "init_Q", "discretize_state",
+"take_action", "observe_reward", "is_terminal", "execute_policy" and "update_Q". It also
+reports dimension of Q is incorrect, defined states discretization are out of bound and defined action is
+out of bound. What’s more, it also reports parameter out of feasible bound. Valid parameters are shown
+as following:
+Random Action Rate: _x000f_ ∈ (0, 1)
+Discount Factor: γ ∈ (0, 1]
+Learning Rate: α ∈ (0, 1]
+Number of discretized positions ∈ [1, 1000)
+Number of discretized velocities ∈ [1, 1”</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The parameter ε is the probability that the next
+decision is random, and it should be a number between 0 and 1. However, if epsilon is 0, it means that
+the action the machine takes must have the largest Q value. If ε is 1, the machine will choose actions
+randomly. When ε is 0, and the initial values in Q-table are all the same, the machine cannot make a
+decision. And when the initial values are random numbers, the machine will quickly converge to a local
+optimal solution without exploring many states. When ε is 1, the machine loses its ability to learn, as
+ε represents the strength of machine learning. The smaller the epsilon, the faster the machine learning
+speed, but the smaller the area to be explored.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2789,6 +2917,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Tinos"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2821,7 +2957,6 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tinos"/>
@@ -2830,6 +2965,7 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tinos"/>
@@ -2850,14 +2986,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Tinos"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2870,7 +2998,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2891,8 +3019,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -3051,7 +3185,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3176,7 +3310,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3184,31 +3318,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3220,7 +3354,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3228,7 +3362,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3236,7 +3370,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3248,11 +3382,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3260,7 +3390,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3272,7 +3414,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3296,11 +3438,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3344,7 +3490,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -3381,9 +3527,9 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFAA61A"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF4F81BD"/>
       <rgbColor rgb="FF969696"/>
@@ -3400,7 +3546,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3545,10 +3691,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3566,10 +3712,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3613,11 +3759,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="55110977"/>
-        <c:axId val="11679539"/>
+        <c:axId val="44522478"/>
+        <c:axId val="2482704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55110977"/>
+        <c:axId val="44522478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,14 +3795,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11679539"/>
+        <c:crossAx val="2482704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11679539"/>
+        <c:axId val="2482704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3844,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55110977"/>
+        <c:crossAx val="44522478"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3795,7 +3941,7 @@
   <dimension ref="A1:BM162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C123" activeCellId="0" sqref="C123"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4140,7 +4286,7 @@
       </c>
       <c r="F5" s="22" t="n">
         <f aca="false">Sheet5!C5</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="22" t="n">
         <f aca="false">Sheet5!D5</f>
@@ -4166,11 +4312,11 @@
       </c>
       <c r="M5" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E5:J5)/10, K5,L5), 10)</f>
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="N5" s="24" t="n">
         <f aca="false">ROUND(M5,1)</f>
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O5" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M5,1),0.5)</f>
@@ -4250,7 +4396,7 @@
       </c>
       <c r="F6" s="28" t="n">
         <f aca="false">F5</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="28" t="n">
         <f aca="false">G5</f>
@@ -4276,11 +4422,11 @@
       </c>
       <c r="M6" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E6:J6)/10, K6,L6), 10)</f>
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="N6" s="24" t="n">
         <f aca="false">ROUND(M6,1)</f>
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O6" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M6,1),0.5)</f>
@@ -4355,7 +4501,7 @@
       </c>
       <c r="F7" s="22" t="n">
         <f aca="false">Sheet5!C7</f>
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="G7" s="22" t="n">
         <f aca="false">Sheet5!D7</f>
@@ -4381,7 +4527,7 @@
       </c>
       <c r="M7" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E7:J7)/10, K7,L7), 10)</f>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N7" s="24" t="n">
         <f aca="false">ROUND(M7,1)</f>
@@ -4389,7 +4535,7 @@
       </c>
       <c r="O7" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M7,1),0.5)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21" t="n">
@@ -4465,7 +4611,7 @@
       </c>
       <c r="F8" s="28" t="n">
         <f aca="false">F7</f>
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="n">
         <f aca="false">G7</f>
@@ -4491,7 +4637,7 @@
       </c>
       <c r="M8" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E8:J8)/10, K8,L8), 10)</f>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N8" s="24" t="n">
         <f aca="false">ROUND(M8,1)</f>
@@ -4499,7 +4645,7 @@
       </c>
       <c r="O8" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M8,1),0.5)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -4575,7 +4721,7 @@
       </c>
       <c r="F9" s="22" t="n">
         <f aca="false">Sheet5!C9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="22" t="n">
         <f aca="false">Sheet5!D9</f>
@@ -4601,11 +4747,11 @@
       </c>
       <c r="M9" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E9:J9)/10, K9,L9), 10)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N9" s="24" t="n">
         <f aca="false">ROUND(M9,1)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O9" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M9,1),0.5)</f>
@@ -4678,7 +4824,7 @@
       </c>
       <c r="F10" s="28" t="n">
         <f aca="false">F9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="28" t="n">
         <f aca="false">G9</f>
@@ -4704,11 +4850,11 @@
       </c>
       <c r="M10" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E10:J10)/10, K10,L10), 10)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N10" s="24" t="n">
         <f aca="false">ROUND(M10,1)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M10,1),0.5)</f>
@@ -4781,7 +4927,7 @@
       </c>
       <c r="F11" s="22" t="n">
         <f aca="false">Sheet5!C11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="22" t="n">
         <f aca="false">Sheet5!D11</f>
@@ -4807,15 +4953,15 @@
       </c>
       <c r="M11" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E11:J11)/10, K11,L11), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N11" s="24" t="n">
         <f aca="false">ROUND(M11,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O11" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M11,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P11" s="25"/>
       <c r="Q11" s="21" t="n">
@@ -4884,7 +5030,7 @@
       </c>
       <c r="F12" s="28" t="n">
         <f aca="false">F11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="28" t="n">
         <f aca="false">G11</f>
@@ -4910,15 +5056,15 @@
       </c>
       <c r="M12" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E12:J12)/10, K12,L12), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N12" s="24" t="n">
         <f aca="false">ROUND(M12,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O12" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M12,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P12" s="25"/>
       <c r="Q12" s="21"/>
@@ -4987,7 +5133,7 @@
       </c>
       <c r="F13" s="22" t="n">
         <f aca="false">Sheet5!C13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="22" t="n">
         <f aca="false">Sheet5!D13</f>
@@ -5013,15 +5159,15 @@
       </c>
       <c r="M13" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E13:J13)/10, K13,L13), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N13" s="24" t="n">
         <f aca="false">ROUND(M13,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O13" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M13,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P13" s="25"/>
       <c r="Q13" s="21" t="n">
@@ -5090,7 +5236,7 @@
       </c>
       <c r="F14" s="28" t="n">
         <f aca="false">F13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="28" t="n">
         <f aca="false">G13</f>
@@ -5116,15 +5262,15 @@
       </c>
       <c r="M14" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E14:J14)/10, K14,L14), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N14" s="24" t="n">
         <f aca="false">ROUND(M14,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O14" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M14,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P14" s="25"/>
       <c r="Q14" s="21"/>
@@ -5193,7 +5339,7 @@
       </c>
       <c r="F15" s="22" t="n">
         <f aca="false">Sheet5!C15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="22" t="n">
         <f aca="false">Sheet5!D15</f>
@@ -5219,11 +5365,11 @@
       </c>
       <c r="M15" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E15:J15)/10, K15,L15), 10)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N15" s="24" t="n">
         <f aca="false">ROUND(M15,1)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O15" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M15,1),0.5)</f>
@@ -5296,7 +5442,7 @@
       </c>
       <c r="F16" s="28" t="n">
         <f aca="false">F15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="28" t="n">
         <f aca="false">G15</f>
@@ -5322,11 +5468,11 @@
       </c>
       <c r="M16" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E16:J16)/10, K16,L16), 10)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N16" s="24" t="n">
         <f aca="false">ROUND(M16,1)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O16" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M16,1),0.5)</f>
@@ -5399,7 +5545,7 @@
       </c>
       <c r="F17" s="22" t="n">
         <f aca="false">Sheet5!C17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="22" t="n">
         <f aca="false">Sheet5!D17</f>
@@ -5425,15 +5571,15 @@
       </c>
       <c r="M17" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E17:J17)/10, K17,L17), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N17" s="24" t="n">
         <f aca="false">ROUND(M17,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O17" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M17,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P17" s="25"/>
       <c r="Q17" s="21" t="n">
@@ -5502,7 +5648,7 @@
       </c>
       <c r="F18" s="28" t="n">
         <f aca="false">F17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="28" t="n">
         <f aca="false">G17</f>
@@ -5528,15 +5674,15 @@
       </c>
       <c r="M18" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E18:J18)/10, K18,L18), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N18" s="24" t="n">
         <f aca="false">ROUND(M18,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O18" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M18,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P18" s="25"/>
       <c r="Q18" s="21"/>
@@ -5605,7 +5751,7 @@
       </c>
       <c r="F19" s="22" t="n">
         <f aca="false">Sheet5!C19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="22" t="n">
         <f aca="false">Sheet5!D19</f>
@@ -5631,15 +5777,15 @@
       </c>
       <c r="M19" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E19:J19)/10, K19,L19), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N19" s="24" t="n">
         <f aca="false">ROUND(M19,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O19" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M19,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P19" s="25"/>
       <c r="Q19" s="21" t="n">
@@ -5708,7 +5854,7 @@
       </c>
       <c r="F20" s="28" t="n">
         <f aca="false">F19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="28" t="n">
         <f aca="false">G19</f>
@@ -5734,15 +5880,15 @@
       </c>
       <c r="M20" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E20:J20)/10, K20,L20), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N20" s="24" t="n">
         <f aca="false">ROUND(M20,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O20" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M20,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P20" s="25"/>
       <c r="Q20" s="21"/>
@@ -5811,7 +5957,7 @@
       </c>
       <c r="F21" s="22" t="n">
         <f aca="false">Sheet5!C21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="22" t="n">
         <f aca="false">Sheet5!D21</f>
@@ -5837,15 +5983,15 @@
       </c>
       <c r="M21" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E21:J21)/10, K21,L21), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N21" s="24" t="n">
         <f aca="false">ROUND(M21,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O21" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M21,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P21" s="25"/>
       <c r="Q21" s="21" t="n">
@@ -5914,7 +6060,7 @@
       </c>
       <c r="F22" s="28" t="n">
         <f aca="false">F21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="28" t="n">
         <f aca="false">G21</f>
@@ -5940,15 +6086,15 @@
       </c>
       <c r="M22" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E22:J22)/10, K22,L22), 10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N22" s="24" t="n">
         <f aca="false">ROUND(M22,1)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O22" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M22,1),0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P22" s="25"/>
       <c r="Q22" s="21"/>
@@ -6017,7 +6163,7 @@
       </c>
       <c r="F23" s="22" t="n">
         <f aca="false">Sheet5!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="22" t="n">
         <f aca="false">Sheet5!D23</f>
@@ -6043,11 +6189,11 @@
       </c>
       <c r="M23" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E23:J23)/10, K23,L23), 10)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N23" s="24" t="n">
         <f aca="false">ROUND(M23,1)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O23" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M23,1),0.5)</f>
@@ -6120,7 +6266,7 @@
       </c>
       <c r="F24" s="28" t="n">
         <f aca="false">F23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="28" t="n">
         <f aca="false">G23</f>
@@ -6146,11 +6292,11 @@
       </c>
       <c r="M24" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E24:J24)/10, K24,L24), 10)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N24" s="24" t="n">
         <f aca="false">ROUND(M24,1)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O24" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M24,1),0.5)</f>
@@ -6223,7 +6369,7 @@
       </c>
       <c r="F25" s="22" t="n">
         <f aca="false">Sheet5!C25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="22" t="n">
         <f aca="false">Sheet5!D25</f>
@@ -6249,11 +6395,11 @@
       </c>
       <c r="M25" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E25:J25)/10, K25,L25), 10)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N25" s="24" t="n">
         <f aca="false">ROUND(M25,1)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O25" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M25,1),0.5)</f>
@@ -6326,7 +6472,7 @@
       </c>
       <c r="F26" s="28" t="n">
         <f aca="false">F25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="28" t="n">
         <f aca="false">G25</f>
@@ -6352,11 +6498,11 @@
       </c>
       <c r="M26" s="23" t="n">
         <f aca="false">MIN(SUM(SUM(E26:J26)/10, K26,L26), 10)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N26" s="24" t="n">
         <f aca="false">ROUND(M26,1)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O26" s="21" t="n">
         <f aca="false">MROUND(TRUNC(M26,1),0.5)</f>
@@ -20595,29 +20741,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CE97"/>
+  <dimension ref="A1:CE98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10376" ySplit="0" topLeftCell="A108" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="B101"/>
-      <selection pane="topRight" activeCell="A108" activeCellId="0" sqref="A108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CP118" activeCellId="0" sqref="CP118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="89.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="31" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="30" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="32" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="30" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="15" style="30" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="26" style="32" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="84" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="67.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="32" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="5" style="30" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="32" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="30" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="30" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="30" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="20" style="30" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="83" min="26" style="32" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="92" min="84" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="93" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -20706,11 +20853,11 @@
       <c r="CD1" s="34"/>
       <c r="CE1" s="34"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
@@ -20883,11 +21030,11 @@
       <c r="CD3" s="42"/>
       <c r="CE3" s="42"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="41"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -21128,7 +21275,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="43" t="s">
         <v>100</v>
       </c>
@@ -21217,17 +21364,18 @@
       <c r="CD6" s="44"/>
       <c r="CE6" s="44"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>1.1</v>
       </c>
       <c r="B8" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="45" t="n">
+      <c r="C8" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="46" t="n">
+      <c r="D8" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="45" t="n">
@@ -21468,14 +21616,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="45" t="n">
+      <c r="C9" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="46" t="n">
+      <c r="D9" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="45" t="n">
@@ -21716,17 +21864,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="n">
         <v>1.2</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="45" t="n">
+      <c r="C10" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="46" t="n">
+      <c r="D10" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="45" t="n">
@@ -21967,14 +22115,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="45" t="n">
+      <c r="C11" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="46" t="n">
+      <c r="D11" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="45" t="n">
@@ -22215,14 +22363,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="45" t="n">
+      <c r="C12" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="46" t="n">
+      <c r="D12" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="45" t="n">
@@ -22463,14 +22611,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="45" t="n">
+      <c r="C13" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="46" t="n">
+      <c r="D13" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="45" t="n">
@@ -22711,14 +22859,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="45" t="n">
+      <c r="C14" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="46" t="n">
+      <c r="D14" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="45" t="n">
@@ -22959,17 +23107,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="n">
         <v>1.3</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="45" t="n">
+      <c r="C15" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="46" t="n">
+      <c r="D15" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="45" t="n">
@@ -23210,14 +23358,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="45" t="n">
+      <c r="C16" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="46" t="n">
+      <c r="D16" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="45" t="n">
@@ -23458,14 +23606,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="45" t="n">
+      <c r="C17" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="46" t="n">
+      <c r="D17" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="45" t="n">
@@ -23706,14 +23854,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="45" t="n">
+      <c r="C18" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="46" t="n">
+      <c r="D18" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="45" t="n">
@@ -23954,14 +24102,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="45" t="n">
+      <c r="C19" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="46" t="n">
+      <c r="D19" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="45" t="n">
@@ -24202,17 +24350,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="n">
         <v>1.4</v>
       </c>
       <c r="B20" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="45" t="n">
+      <c r="C20" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="46" t="n">
+      <c r="D20" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="45" t="n">
@@ -24453,14 +24601,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="45" t="n">
+      <c r="C21" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="46" t="n">
+      <c r="D21" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="45" t="n">
@@ -24701,14 +24849,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="45" t="n">
+      <c r="C22" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="46" t="n">
+      <c r="D22" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="45" t="n">
@@ -24949,17 +25097,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="n">
         <v>1.5</v>
       </c>
       <c r="B23" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="45" t="n">
+      <c r="C23" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="46" t="n">
+      <c r="D23" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="45" t="n">
@@ -25200,14 +25348,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="45" t="n">
+      <c r="C24" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="46" t="n">
+      <c r="D24" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="45" t="n">
@@ -25448,14 +25596,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="45" t="n">
+      <c r="C25" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="46" t="n">
+      <c r="D25" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="45" t="n">
@@ -25696,17 +25844,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="45" t="n">
+      <c r="C26" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="46" t="n">
+      <c r="D26" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="45" t="n">
@@ -25947,7 +26095,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="48" t="s">
         <v>121</v>
       </c>
@@ -25960,215 +26109,215 @@
         <f aca="false">MIN(SUM(D8:D26), 20)</f>
         <v>20</v>
       </c>
-      <c r="E28" s="49" t="n">
+      <c r="E28" s="51" t="n">
         <f aca="false">MIN(SUM(E8:E26), 20)</f>
         <v>15</v>
       </c>
-      <c r="F28" s="49" t="n">
+      <c r="F28" s="51" t="n">
         <f aca="false">MIN(SUM(F8:F26), 20)</f>
         <v>9</v>
       </c>
-      <c r="G28" s="49" t="n">
+      <c r="G28" s="51" t="n">
         <f aca="false">MIN(SUM(G8:G26), 20)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="49" t="n">
+      <c r="H28" s="51" t="n">
         <f aca="false">MIN(SUM(H8:H26), 20)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="49" t="n">
+      <c r="I28" s="51" t="n">
         <f aca="false">MIN(SUM(I8:I26), 20)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="49" t="n">
+      <c r="J28" s="51" t="n">
         <f aca="false">MIN(SUM(J8:J26), 20)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="49" t="n">
+      <c r="K28" s="51" t="n">
         <f aca="false">MIN(SUM(K8:K26), 20)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="49" t="n">
+      <c r="L28" s="51" t="n">
         <f aca="false">MIN(SUM(L8:L26), 20)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="51" t="n">
+      <c r="M28" s="50" t="n">
         <f aca="false">MIN(SUM(M8:M26), 20)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="49" t="n">
+      <c r="N28" s="51" t="n">
         <f aca="false">MIN(SUM(N8:N26), 20)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="49" t="n">
+      <c r="O28" s="51" t="n">
         <f aca="false">MIN(SUM(O8:O26), 20)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="49" t="n">
+      <c r="P28" s="51" t="n">
         <f aca="false">MIN(SUM(P8:P26), 20)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="49" t="n">
+      <c r="Q28" s="51" t="n">
         <f aca="false">MIN(SUM(Q8:Q26), 20)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="49" t="n">
+      <c r="R28" s="51" t="n">
         <f aca="false">MIN(SUM(R8:R26), 20)</f>
         <v>0</v>
       </c>
-      <c r="S28" s="49" t="n">
+      <c r="S28" s="51" t="n">
         <f aca="false">MIN(SUM(S8:S26), 20)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="49" t="n">
+      <c r="T28" s="51" t="n">
         <f aca="false">MIN(SUM(T8:T26), 20)</f>
         <v>0</v>
       </c>
-      <c r="U28" s="49" t="n">
+      <c r="U28" s="51" t="n">
         <f aca="false">MIN(SUM(U8:U26), 20)</f>
         <v>0</v>
       </c>
-      <c r="V28" s="49" t="n">
+      <c r="V28" s="51" t="n">
         <f aca="false">MIN(SUM(V8:V26), 20)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="49" t="n">
+      <c r="W28" s="51" t="n">
         <f aca="false">MIN(SUM(W8:W26), 20)</f>
         <v>0</v>
       </c>
-      <c r="X28" s="49" t="n">
+      <c r="X28" s="51" t="n">
         <f aca="false">MIN(SUM(X8:X26), 20)</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="49" t="n">
+      <c r="Y28" s="51" t="n">
         <f aca="false">MIN(SUM(Y8:Y26), 20)</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="51" t="n">
+      <c r="Z28" s="50" t="n">
         <f aca="false">MIN(SUM(Z8:Z26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="51" t="n">
+      <c r="AA28" s="50" t="n">
         <f aca="false">MIN(SUM(AA8:AA26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="51" t="n">
+      <c r="AB28" s="50" t="n">
         <f aca="false">MIN(SUM(AB8:AB26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AC28" s="51" t="n">
+      <c r="AC28" s="50" t="n">
         <f aca="false">MIN(SUM(AC8:AC26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AD28" s="51" t="n">
+      <c r="AD28" s="50" t="n">
         <f aca="false">MIN(SUM(AD8:AD26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="51" t="n">
+      <c r="AE28" s="50" t="n">
         <f aca="false">MIN(SUM(AE8:AE26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AF28" s="51" t="n">
+      <c r="AF28" s="50" t="n">
         <f aca="false">MIN(SUM(AF8:AF26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="51" t="n">
+      <c r="AG28" s="50" t="n">
         <f aca="false">MIN(SUM(AG8:AG26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AH28" s="51" t="n">
+      <c r="AH28" s="50" t="n">
         <f aca="false">MIN(SUM(AH8:AH26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="51" t="n">
+      <c r="AI28" s="50" t="n">
         <f aca="false">MIN(SUM(AI8:AI26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="51" t="n">
+      <c r="AJ28" s="50" t="n">
         <f aca="false">MIN(SUM(AJ8:AJ26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AK28" s="51" t="n">
+      <c r="AK28" s="50" t="n">
         <f aca="false">MIN(SUM(AK8:AK26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AL28" s="51" t="n">
+      <c r="AL28" s="50" t="n">
         <f aca="false">MIN(SUM(AL8:AL26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AM28" s="51" t="n">
+      <c r="AM28" s="50" t="n">
         <f aca="false">MIN(SUM(AM8:AM26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AN28" s="51" t="n">
+      <c r="AN28" s="50" t="n">
         <f aca="false">MIN(SUM(AN8:AN26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AO28" s="51" t="n">
+      <c r="AO28" s="50" t="n">
         <f aca="false">MIN(SUM(AO8:AO26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AP28" s="51" t="n">
+      <c r="AP28" s="50" t="n">
         <f aca="false">MIN(SUM(AP8:AP26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AQ28" s="51" t="n">
+      <c r="AQ28" s="50" t="n">
         <f aca="false">MIN(SUM(AQ8:AQ26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AR28" s="51" t="n">
+      <c r="AR28" s="50" t="n">
         <f aca="false">MIN(SUM(AR8:AR26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AS28" s="51" t="n">
+      <c r="AS28" s="50" t="n">
         <f aca="false">MIN(SUM(AS8:AS26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AT28" s="51" t="n">
+      <c r="AT28" s="50" t="n">
         <f aca="false">MIN(SUM(AT8:AT26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AU28" s="51" t="n">
+      <c r="AU28" s="50" t="n">
         <f aca="false">MIN(SUM(AU8:AU26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AV28" s="51" t="n">
+      <c r="AV28" s="50" t="n">
         <f aca="false">MIN(SUM(AV8:AV26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AW28" s="51" t="n">
+      <c r="AW28" s="50" t="n">
         <f aca="false">MIN(SUM(AW8:AW26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AX28" s="51" t="n">
+      <c r="AX28" s="50" t="n">
         <f aca="false">MIN(SUM(AX8:AX26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AY28" s="51" t="n">
+      <c r="AY28" s="50" t="n">
         <f aca="false">MIN(SUM(AY8:AY26), 20)</f>
         <v>0</v>
       </c>
-      <c r="AZ28" s="51" t="n">
+      <c r="AZ28" s="50" t="n">
         <f aca="false">MIN(SUM(AZ8:AZ26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BA28" s="51" t="n">
+      <c r="BA28" s="50" t="n">
         <f aca="false">MIN(SUM(BA8:BA26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BB28" s="51" t="n">
+      <c r="BB28" s="50" t="n">
         <f aca="false">MIN(SUM(BB8:BB26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BC28" s="51" t="n">
+      <c r="BC28" s="50" t="n">
         <f aca="false">MIN(SUM(BC8:BC26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BD28" s="51" t="n">
+      <c r="BD28" s="50" t="n">
         <f aca="false">MIN(SUM(BD8:BD26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BE28" s="51" t="n">
+      <c r="BE28" s="50" t="n">
         <f aca="false">MIN(SUM(BE8:BE26), 20)</f>
         <v>0</v>
       </c>
@@ -26176,108 +26325,109 @@
         <f aca="false">MIN(SUM(BF8:BF26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BG28" s="51" t="n">
+      <c r="BG28" s="50" t="n">
         <f aca="false">MIN(SUM(BG8:BG26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BH28" s="51" t="n">
+      <c r="BH28" s="50" t="n">
         <f aca="false">MIN(SUM(BH8:BH26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BI28" s="51" t="n">
+      <c r="BI28" s="50" t="n">
         <f aca="false">MIN(SUM(BI8:BI26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BJ28" s="51" t="n">
+      <c r="BJ28" s="50" t="n">
         <f aca="false">MIN(SUM(BJ8:BJ26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BK28" s="51" t="n">
+      <c r="BK28" s="50" t="n">
         <f aca="false">MIN(SUM(BK8:BK26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BL28" s="51" t="n">
+      <c r="BL28" s="50" t="n">
         <f aca="false">MIN(SUM(BL8:BL26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BM28" s="51" t="n">
+      <c r="BM28" s="50" t="n">
         <f aca="false">MIN(SUM(BM8:BM26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BN28" s="51" t="n">
+      <c r="BN28" s="50" t="n">
         <f aca="false">MIN(SUM(BN8:BN26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BO28" s="51" t="n">
+      <c r="BO28" s="50" t="n">
         <f aca="false">MIN(SUM(BO8:BO26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BP28" s="51" t="n">
+      <c r="BP28" s="50" t="n">
         <f aca="false">MIN(SUM(BP8:BP26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BQ28" s="51" t="n">
+      <c r="BQ28" s="50" t="n">
         <f aca="false">MIN(SUM(BQ8:BQ26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BR28" s="51" t="n">
+      <c r="BR28" s="50" t="n">
         <f aca="false">MIN(SUM(BR8:BR26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BS28" s="51" t="n">
+      <c r="BS28" s="50" t="n">
         <f aca="false">MIN(SUM(BS8:BS26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BT28" s="51" t="n">
+      <c r="BT28" s="50" t="n">
         <f aca="false">MIN(SUM(BT8:BT26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BU28" s="51" t="n">
+      <c r="BU28" s="50" t="n">
         <f aca="false">MIN(SUM(BU8:BU26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BV28" s="51" t="n">
+      <c r="BV28" s="50" t="n">
         <f aca="false">MIN(SUM(BV8:BV26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BW28" s="51" t="n">
+      <c r="BW28" s="50" t="n">
         <f aca="false">MIN(SUM(BW8:BW26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BX28" s="51" t="n">
+      <c r="BX28" s="50" t="n">
         <f aca="false">MIN(SUM(BX8:BX26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BY28" s="51" t="n">
+      <c r="BY28" s="50" t="n">
         <f aca="false">MIN(SUM(BY8:BY26), 20)</f>
         <v>0</v>
       </c>
-      <c r="BZ28" s="51" t="n">
+      <c r="BZ28" s="50" t="n">
         <f aca="false">MIN(SUM(BZ8:BZ26), 20)</f>
         <v>0</v>
       </c>
-      <c r="CA28" s="51" t="n">
+      <c r="CA28" s="50" t="n">
         <f aca="false">MIN(SUM(CA8:CA26), 20)</f>
         <v>0</v>
       </c>
-      <c r="CB28" s="51" t="n">
+      <c r="CB28" s="50" t="n">
         <f aca="false">MIN(SUM(CB8:CB26), 20)</f>
         <v>0</v>
       </c>
-      <c r="CC28" s="51" t="n">
+      <c r="CC28" s="50" t="n">
         <f aca="false">MIN(SUM(CC8:CC26), 20)</f>
         <v>0</v>
       </c>
-      <c r="CD28" s="51" t="n">
+      <c r="CD28" s="50" t="n">
         <f aca="false">MIN(SUM(CD8:CD26), 20)</f>
         <v>0</v>
       </c>
-      <c r="CE28" s="51" t="n">
+      <c r="CE28" s="50" t="n">
         <f aca="false">MIN(SUM(CE8:CE26), 20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
         <v>122</v>
       </c>
@@ -26366,51 +26516,51 @@
       <c r="CD30" s="44"/>
       <c r="CE30" s="44"/>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29" t="n">
         <v>2.1</v>
       </c>
       <c r="B32" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="45" t="n">
+      <c r="C32" s="46" t="n">
         <v>0.5</v>
       </c>
-      <c r="D32" s="46" t="n">
+      <c r="D32" s="52" t="n">
         <v>0.5</v>
       </c>
-      <c r="E32" s="45" t="n">
+      <c r="E32" s="53" t="n">
         <v>0.5</v>
       </c>
-      <c r="F32" s="45" t="n">
+      <c r="F32" s="53" t="n">
         <v>0.5</v>
       </c>
-      <c r="G32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="47" t="n">
-        <v>0</v>
+      <c r="G32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O32" s="53" t="n">
+        <v>0.5</v>
       </c>
       <c r="P32" s="47" t="n">
         <v>0</v>
@@ -26617,48 +26767,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="45" t="n">
+      <c r="C33" s="46" t="n">
         <v>0.5</v>
       </c>
-      <c r="D33" s="46" t="n">
+      <c r="D33" s="53" t="n">
         <v>0.5</v>
       </c>
-      <c r="E33" s="45" t="n">
+      <c r="E33" s="53" t="n">
         <v>0.5</v>
       </c>
-      <c r="F33" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="47" t="n">
-        <v>0</v>
+      <c r="F33" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M33" s="53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O33" s="53" t="n">
+        <v>0.5</v>
       </c>
       <c r="P33" s="47" t="n">
         <v>0</v>
@@ -26865,48 +27015,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="45" t="n">
+      <c r="C34" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="46" t="n">
+      <c r="D34" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="45" t="n">
+      <c r="E34" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="F34" s="45" t="n">
+      <c r="F34" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="G34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="47" t="n">
-        <v>0</v>
+      <c r="G34" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="53" t="n">
+        <v>1</v>
       </c>
       <c r="P34" s="47" t="n">
         <v>0</v>
@@ -27113,47 +27263,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="45" t="n">
+      <c r="C35" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="46" t="n">
+      <c r="D35" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="45" t="n">
+      <c r="E35" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="G35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="47" t="n">
+      <c r="F35" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="52" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="47" t="n">
@@ -27361,17 +27511,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="n">
         <v>2.2</v>
       </c>
       <c r="B36" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="45" t="n">
+      <c r="C36" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="46" t="n">
+      <c r="D36" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E36" s="45" t="n">
@@ -27612,17 +27762,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="n">
         <v>2.3</v>
       </c>
       <c r="B37" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="45" t="n">
+      <c r="C37" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D37" s="46" t="n">
+      <c r="D37" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E37" s="45" t="n">
@@ -27863,17 +28013,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="n">
         <v>2.4</v>
       </c>
       <c r="B38" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="45" t="n">
+      <c r="C38" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="46" t="n">
+      <c r="D38" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E38" s="45" t="n">
@@ -28114,14 +28264,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="45" t="n">
+      <c r="C39" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="46" t="n">
+      <c r="D39" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E39" s="45" t="n">
@@ -28362,14 +28512,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="45" t="n">
+      <c r="C40" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="46" t="n">
+      <c r="D40" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E40" s="45" t="n">
@@ -28610,14 +28760,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="45" t="n">
+      <c r="C41" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="46" t="n">
+      <c r="D41" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E41" s="45" t="n">
@@ -28858,17 +29008,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="n">
         <v>2.5</v>
       </c>
       <c r="B42" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="45" t="n">
+      <c r="C42" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="46" t="n">
+      <c r="D42" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="45" t="n">
@@ -29109,14 +29259,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="45" t="n">
+      <c r="C43" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="46" t="n">
+      <c r="D43" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E43" s="45" t="n">
@@ -29357,14 +29507,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="45" t="n">
+      <c r="C44" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="46" t="n">
+      <c r="D44" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E44" s="45" t="n">
@@ -29605,17 +29755,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="n">
         <v>2.6</v>
       </c>
       <c r="B45" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="45" t="n">
+      <c r="C45" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D45" s="46" t="n">
+      <c r="D45" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E45" s="45" t="n">
@@ -29856,14 +30006,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="52" t="s">
+    <row r="46" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="45" t="n">
+      <c r="C46" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="46" t="n">
+      <c r="D46" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E46" s="45" t="n">
@@ -30104,14 +30254,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="45" t="n">
+      <c r="C47" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="46" t="n">
+      <c r="D47" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E47" s="45" t="n">
@@ -30352,17 +30502,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="n">
         <v>2.7</v>
       </c>
       <c r="B48" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="45" t="n">
+      <c r="C48" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D48" s="46" t="n">
+      <c r="D48" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E48" s="45" t="n">
@@ -30603,14 +30753,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="45" t="n">
+      <c r="C49" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="46" t="n">
+      <c r="D49" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E49" s="45" t="n">
@@ -30851,14 +31001,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="52" t="s">
+    <row r="50" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="45" t="n">
+      <c r="C50" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="46" t="n">
+      <c r="D50" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E50" s="45" t="n">
@@ -31099,14 +31249,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="45" t="n">
+      <c r="C51" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="46" t="n">
+      <c r="D51" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E51" s="45" t="n">
@@ -31347,7 +31497,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="48" t="s">
         <v>143</v>
       </c>
@@ -31360,215 +31511,215 @@
         <f aca="false">SUM(D32:D51)</f>
         <v>35</v>
       </c>
-      <c r="E53" s="49" t="n">
+      <c r="E53" s="51" t="n">
         <f aca="false">SUM(E32:E51)</f>
-        <v>29</v>
-      </c>
-      <c r="F53" s="49" t="n">
+        <v>30</v>
+      </c>
+      <c r="F53" s="51" t="n">
         <f aca="false">SUM(F32:F51)</f>
-        <v>15.5</v>
-      </c>
-      <c r="G53" s="49" t="n">
+        <v>16</v>
+      </c>
+      <c r="G53" s="51" t="n">
         <f aca="false">SUM(G32:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="51" t="n">
         <f aca="false">SUM(H32:H51)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" s="51" t="n">
         <f aca="false">SUM(I32:I51)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" s="51" t="n">
         <f aca="false">SUM(J32:J51)</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" s="51" t="n">
         <f aca="false">SUM(K32:K51)</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L53" s="51" t="n">
         <f aca="false">SUM(L32:L51)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" s="50" t="n">
         <f aca="false">SUM(M32:M51)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" s="51" t="n">
         <f aca="false">SUM(N32:N51)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="51" t="n">
         <f aca="false">SUM(O32:O51)</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" s="51" t="n">
         <f aca="false">SUM(P32:P51)</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="49" t="n">
+      <c r="Q53" s="51" t="n">
         <f aca="false">SUM(Q32:Q51)</f>
         <v>0</v>
       </c>
-      <c r="R53" s="49" t="n">
+      <c r="R53" s="51" t="n">
         <f aca="false">SUM(R32:R51)</f>
         <v>0</v>
       </c>
-      <c r="S53" s="49" t="n">
+      <c r="S53" s="51" t="n">
         <f aca="false">SUM(S32:S51)</f>
         <v>0</v>
       </c>
-      <c r="T53" s="49" t="n">
+      <c r="T53" s="51" t="n">
         <f aca="false">SUM(T32:T51)</f>
         <v>0</v>
       </c>
-      <c r="U53" s="49" t="n">
+      <c r="U53" s="51" t="n">
         <f aca="false">SUM(U32:U51)</f>
         <v>0</v>
       </c>
-      <c r="V53" s="49" t="n">
+      <c r="V53" s="51" t="n">
         <f aca="false">SUM(V32:V51)</f>
         <v>0</v>
       </c>
-      <c r="W53" s="49" t="n">
+      <c r="W53" s="51" t="n">
         <f aca="false">SUM(W32:W51)</f>
         <v>0</v>
       </c>
-      <c r="X53" s="49" t="n">
+      <c r="X53" s="51" t="n">
         <f aca="false">SUM(X32:X51)</f>
         <v>0</v>
       </c>
-      <c r="Y53" s="49" t="n">
+      <c r="Y53" s="51" t="n">
         <f aca="false">SUM(Y32:Y51)</f>
         <v>0</v>
       </c>
-      <c r="Z53" s="51" t="n">
+      <c r="Z53" s="50" t="n">
         <f aca="false">SUM(Z32:Z51)</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="51" t="n">
+      <c r="AA53" s="50" t="n">
         <f aca="false">SUM(AA32:AA51)</f>
         <v>0</v>
       </c>
-      <c r="AB53" s="51" t="n">
+      <c r="AB53" s="50" t="n">
         <f aca="false">SUM(AB32:AB51)</f>
         <v>0</v>
       </c>
-      <c r="AC53" s="51" t="n">
+      <c r="AC53" s="50" t="n">
         <f aca="false">SUM(AC32:AC51)</f>
         <v>0</v>
       </c>
-      <c r="AD53" s="51" t="n">
+      <c r="AD53" s="50" t="n">
         <f aca="false">SUM(AD32:AD51)</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="51" t="n">
+      <c r="AE53" s="50" t="n">
         <f aca="false">SUM(AE32:AE51)</f>
         <v>0</v>
       </c>
-      <c r="AF53" s="51" t="n">
+      <c r="AF53" s="50" t="n">
         <f aca="false">SUM(AF32:AF51)</f>
         <v>0</v>
       </c>
-      <c r="AG53" s="51" t="n">
+      <c r="AG53" s="50" t="n">
         <f aca="false">SUM(AG32:AG51)</f>
         <v>0</v>
       </c>
-      <c r="AH53" s="51" t="n">
+      <c r="AH53" s="50" t="n">
         <f aca="false">SUM(AH32:AH51)</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="51" t="n">
+      <c r="AI53" s="50" t="n">
         <f aca="false">SUM(AI32:AI51)</f>
         <v>0</v>
       </c>
-      <c r="AJ53" s="51" t="n">
+      <c r="AJ53" s="50" t="n">
         <f aca="false">SUM(AJ32:AJ51)</f>
         <v>0</v>
       </c>
-      <c r="AK53" s="51" t="n">
+      <c r="AK53" s="50" t="n">
         <f aca="false">SUM(AK32:AK51)</f>
         <v>0</v>
       </c>
-      <c r="AL53" s="51" t="n">
+      <c r="AL53" s="50" t="n">
         <f aca="false">SUM(AL32:AL51)</f>
         <v>0</v>
       </c>
-      <c r="AM53" s="51" t="n">
+      <c r="AM53" s="50" t="n">
         <f aca="false">SUM(AM32:AM51)</f>
         <v>0</v>
       </c>
-      <c r="AN53" s="51" t="n">
+      <c r="AN53" s="50" t="n">
         <f aca="false">SUM(AN32:AN51)</f>
         <v>0</v>
       </c>
-      <c r="AO53" s="51" t="n">
+      <c r="AO53" s="50" t="n">
         <f aca="false">SUM(AO32:AO51)</f>
         <v>0</v>
       </c>
-      <c r="AP53" s="51" t="n">
+      <c r="AP53" s="50" t="n">
         <f aca="false">SUM(AP32:AP51)</f>
         <v>0</v>
       </c>
-      <c r="AQ53" s="51" t="n">
+      <c r="AQ53" s="50" t="n">
         <f aca="false">SUM(AQ32:AQ51)</f>
         <v>0</v>
       </c>
-      <c r="AR53" s="51" t="n">
+      <c r="AR53" s="50" t="n">
         <f aca="false">SUM(AR32:AR51)</f>
         <v>0</v>
       </c>
-      <c r="AS53" s="51" t="n">
+      <c r="AS53" s="50" t="n">
         <f aca="false">SUM(AS32:AS51)</f>
         <v>0</v>
       </c>
-      <c r="AT53" s="51" t="n">
+      <c r="AT53" s="50" t="n">
         <f aca="false">SUM(AT32:AT51)</f>
         <v>0</v>
       </c>
-      <c r="AU53" s="51" t="n">
+      <c r="AU53" s="50" t="n">
         <f aca="false">SUM(AU32:AU51)</f>
         <v>0</v>
       </c>
-      <c r="AV53" s="51" t="n">
+      <c r="AV53" s="50" t="n">
         <f aca="false">SUM(AV32:AV51)</f>
         <v>0</v>
       </c>
-      <c r="AW53" s="51" t="n">
+      <c r="AW53" s="50" t="n">
         <f aca="false">SUM(AW32:AW51)</f>
         <v>0</v>
       </c>
-      <c r="AX53" s="51" t="n">
+      <c r="AX53" s="50" t="n">
         <f aca="false">SUM(AX32:AX51)</f>
         <v>0</v>
       </c>
-      <c r="AY53" s="51" t="n">
+      <c r="AY53" s="50" t="n">
         <f aca="false">SUM(AY32:AY51)</f>
         <v>0</v>
       </c>
-      <c r="AZ53" s="51" t="n">
+      <c r="AZ53" s="50" t="n">
         <f aca="false">SUM(AZ32:AZ51)</f>
         <v>0</v>
       </c>
-      <c r="BA53" s="51" t="n">
+      <c r="BA53" s="50" t="n">
         <f aca="false">SUM(BA32:BA51)</f>
         <v>0</v>
       </c>
-      <c r="BB53" s="51" t="n">
+      <c r="BB53" s="50" t="n">
         <f aca="false">SUM(BB32:BB51)</f>
         <v>0</v>
       </c>
-      <c r="BC53" s="51" t="n">
+      <c r="BC53" s="50" t="n">
         <f aca="false">SUM(BC32:BC51)</f>
         <v>0</v>
       </c>
-      <c r="BD53" s="51" t="n">
+      <c r="BD53" s="50" t="n">
         <f aca="false">SUM(BD32:BD51)</f>
         <v>0</v>
       </c>
-      <c r="BE53" s="51" t="n">
+      <c r="BE53" s="50" t="n">
         <f aca="false">SUM(BE32:BE51)</f>
         <v>0</v>
       </c>
@@ -31576,108 +31727,109 @@
         <f aca="false">SUM(BF32:BF51)</f>
         <v>0</v>
       </c>
-      <c r="BG53" s="51" t="n">
+      <c r="BG53" s="50" t="n">
         <f aca="false">SUM(BG32:BG51)</f>
         <v>0</v>
       </c>
-      <c r="BH53" s="51" t="n">
+      <c r="BH53" s="50" t="n">
         <f aca="false">SUM(BH32:BH51)</f>
         <v>0</v>
       </c>
-      <c r="BI53" s="51" t="n">
+      <c r="BI53" s="50" t="n">
         <f aca="false">SUM(BI32:BI51)</f>
         <v>0</v>
       </c>
-      <c r="BJ53" s="51" t="n">
+      <c r="BJ53" s="50" t="n">
         <f aca="false">SUM(BJ32:BJ51)</f>
         <v>0</v>
       </c>
-      <c r="BK53" s="51" t="n">
+      <c r="BK53" s="50" t="n">
         <f aca="false">SUM(BK32:BK51)</f>
         <v>0</v>
       </c>
-      <c r="BL53" s="51" t="n">
+      <c r="BL53" s="50" t="n">
         <f aca="false">SUM(BL32:BL51)</f>
         <v>0</v>
       </c>
-      <c r="BM53" s="51" t="n">
+      <c r="BM53" s="50" t="n">
         <f aca="false">SUM(BM32:BM51)</f>
         <v>0</v>
       </c>
-      <c r="BN53" s="51" t="n">
+      <c r="BN53" s="50" t="n">
         <f aca="false">SUM(BN32:BN51)</f>
         <v>0</v>
       </c>
-      <c r="BO53" s="51" t="n">
+      <c r="BO53" s="50" t="n">
         <f aca="false">SUM(BO32:BO51)</f>
         <v>0</v>
       </c>
-      <c r="BP53" s="51" t="n">
+      <c r="BP53" s="50" t="n">
         <f aca="false">SUM(BP32:BP51)</f>
         <v>0</v>
       </c>
-      <c r="BQ53" s="51" t="n">
+      <c r="BQ53" s="50" t="n">
         <f aca="false">SUM(BQ32:BQ51)</f>
         <v>0</v>
       </c>
-      <c r="BR53" s="51" t="n">
+      <c r="BR53" s="50" t="n">
         <f aca="false">SUM(BR32:BR51)</f>
         <v>0</v>
       </c>
-      <c r="BS53" s="51" t="n">
+      <c r="BS53" s="50" t="n">
         <f aca="false">SUM(BS32:BS51)</f>
         <v>0</v>
       </c>
-      <c r="BT53" s="51" t="n">
+      <c r="BT53" s="50" t="n">
         <f aca="false">SUM(BT32:BT51)</f>
         <v>0</v>
       </c>
-      <c r="BU53" s="51" t="n">
+      <c r="BU53" s="50" t="n">
         <f aca="false">SUM(BU32:BU51)</f>
         <v>0</v>
       </c>
-      <c r="BV53" s="51" t="n">
+      <c r="BV53" s="50" t="n">
         <f aca="false">SUM(BV32:BV51)</f>
         <v>0</v>
       </c>
-      <c r="BW53" s="51" t="n">
+      <c r="BW53" s="50" t="n">
         <f aca="false">SUM(BW32:BW51)</f>
         <v>0</v>
       </c>
-      <c r="BX53" s="51" t="n">
+      <c r="BX53" s="50" t="n">
         <f aca="false">SUM(BX32:BX51)</f>
         <v>0</v>
       </c>
-      <c r="BY53" s="51" t="n">
+      <c r="BY53" s="50" t="n">
         <f aca="false">SUM(BY32:BY51)</f>
         <v>0</v>
       </c>
-      <c r="BZ53" s="51" t="n">
+      <c r="BZ53" s="50" t="n">
         <f aca="false">SUM(BZ32:BZ51)</f>
         <v>0</v>
       </c>
-      <c r="CA53" s="51" t="n">
+      <c r="CA53" s="50" t="n">
         <f aca="false">SUM(CA32:CA51)</f>
         <v>0</v>
       </c>
-      <c r="CB53" s="51" t="n">
+      <c r="CB53" s="50" t="n">
         <f aca="false">SUM(CB32:CB51)</f>
         <v>0</v>
       </c>
-      <c r="CC53" s="51" t="n">
+      <c r="CC53" s="50" t="n">
         <f aca="false">SUM(CC32:CC51)</f>
         <v>0</v>
       </c>
-      <c r="CD53" s="51" t="n">
+      <c r="CD53" s="50" t="n">
         <f aca="false">SUM(CD32:CD51)</f>
         <v>0</v>
       </c>
-      <c r="CE53" s="51" t="n">
+      <c r="CE53" s="50" t="n">
         <f aca="false">SUM(CE32:CE51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="43" t="s">
         <v>144</v>
       </c>
@@ -31766,17 +31918,18 @@
       <c r="CD55" s="44"/>
       <c r="CE55" s="44"/>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="n">
         <v>3.1</v>
       </c>
       <c r="B57" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="45" t="n">
+      <c r="C57" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="D57" s="46" t="n">
+      <c r="D57" s="47" t="n">
         <v>3</v>
       </c>
       <c r="E57" s="45" t="n">
@@ -32017,14 +32170,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="45" t="n">
+      <c r="C58" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="46" t="n">
+      <c r="D58" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E58" s="45" t="n">
@@ -32265,14 +32418,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="45" t="n">
+      <c r="C59" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="46" t="n">
+      <c r="D59" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E59" s="45" t="n">
@@ -32513,14 +32666,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="45" t="n">
+      <c r="C60" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D60" s="46" t="n">
+      <c r="D60" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E60" s="45" t="n">
@@ -32761,14 +32914,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="45" t="n">
+      <c r="C61" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D61" s="46" t="n">
+      <c r="D61" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E61" s="45" t="n">
@@ -33009,14 +33162,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="45" t="n">
+      <c r="C62" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D62" s="46" t="n">
+      <c r="D62" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E62" s="45" t="n">
@@ -33257,14 +33410,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="45" t="n">
+      <c r="C63" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="46" t="n">
+      <c r="D63" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E63" s="45" t="n">
@@ -33505,14 +33658,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="45" t="n">
+      <c r="C64" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="46" t="n">
+      <c r="D64" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E64" s="45" t="n">
@@ -33753,14 +33906,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="45" t="n">
+      <c r="C65" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="46" t="n">
+      <c r="D65" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E65" s="45" t="n">
@@ -34001,266 +34154,266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="57" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="53" t="n">
+    <row r="66" s="59" customFormat="true" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="55" t="n">
         <v>3.2</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD66" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE66" s="56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="53"/>
+      <c r="C66" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD66" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE66" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="55"/>
       <c r="B67" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="45" t="n">
+      <c r="C67" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="D67" s="46" t="n">
+      <c r="D67" s="47" t="n">
         <v>3</v>
       </c>
       <c r="E67" s="45" t="n">
@@ -34501,15 +34654,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="53"/>
+    <row r="68" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="55"/>
       <c r="B68" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="45" t="n">
+      <c r="C68" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="D68" s="46" t="n">
+      <c r="D68" s="47" t="n">
         <v>6</v>
       </c>
       <c r="E68" s="45" t="n">
@@ -34750,15 +34903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="53"/>
+    <row r="69" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="55"/>
       <c r="B69" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="45" t="n">
+      <c r="C69" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="D69" s="46" t="n">
+      <c r="D69" s="47" t="n">
         <v>7</v>
       </c>
       <c r="E69" s="45" t="n">
@@ -34999,10 +35152,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="45"/>
       <c r="F70" s="45"/>
       <c r="G70" s="45"/>
@@ -35082,7 +35235,7 @@
       <c r="CD70" s="47"/>
       <c r="CE70" s="47"/>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="48" t="s">
         <v>158</v>
       </c>
@@ -35095,334 +35248,335 @@
         <f aca="false">SUM(D57:D69)</f>
         <v>35</v>
       </c>
-      <c r="E71" s="49" t="n">
+      <c r="E71" s="51" t="n">
         <f aca="false">SUM(E57:E69)</f>
         <v>21</v>
       </c>
-      <c r="F71" s="49" t="n">
+      <c r="F71" s="51" t="n">
         <f aca="false">SUM(F57:F69)</f>
         <v>8</v>
       </c>
-      <c r="G71" s="49" t="n">
+      <c r="G71" s="51" t="n">
         <f aca="false">SUM(G57:G69)</f>
         <v>0</v>
       </c>
-      <c r="H71" s="49" t="n">
+      <c r="H71" s="51" t="n">
         <f aca="false">SUM(H57:H69)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="49" t="n">
+      <c r="I71" s="51" t="n">
         <f aca="false">SUM(I57:I69)</f>
         <v>0</v>
       </c>
-      <c r="J71" s="49" t="n">
+      <c r="J71" s="51" t="n">
         <f aca="false">SUM(J57:J69)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="49" t="n">
+      <c r="K71" s="51" t="n">
         <f aca="false">SUM(K57:K69)</f>
         <v>0</v>
       </c>
-      <c r="L71" s="49" t="n">
+      <c r="L71" s="51" t="n">
         <f aca="false">SUM(L57:L69)</f>
         <v>0</v>
       </c>
-      <c r="M71" s="51" t="n">
+      <c r="M71" s="50" t="n">
         <f aca="false">SUM(M57:M69)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="49" t="n">
+      <c r="N71" s="51" t="n">
         <f aca="false">SUM(N57:N69)</f>
         <v>0</v>
       </c>
-      <c r="O71" s="49" t="n">
+      <c r="O71" s="51" t="n">
         <f aca="false">SUM(O57:O69)</f>
         <v>0</v>
       </c>
-      <c r="P71" s="49" t="n">
+      <c r="P71" s="51" t="n">
         <f aca="false">SUM(P57:P69)</f>
         <v>0</v>
       </c>
-      <c r="Q71" s="49" t="n">
+      <c r="Q71" s="51" t="n">
         <f aca="false">SUM(Q57:Q69)</f>
         <v>0</v>
       </c>
-      <c r="R71" s="49" t="n">
+      <c r="R71" s="51" t="n">
         <f aca="false">SUM(R57:R69)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="49" t="n">
+      <c r="S71" s="51" t="n">
         <f aca="false">SUM(S57:S69)</f>
         <v>0</v>
       </c>
-      <c r="T71" s="49" t="n">
+      <c r="T71" s="51" t="n">
         <f aca="false">SUM(T57:T69)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="49" t="n">
+      <c r="U71" s="51" t="n">
         <f aca="false">SUM(U57:U69)</f>
         <v>0</v>
       </c>
-      <c r="V71" s="49" t="n">
+      <c r="V71" s="51" t="n">
         <f aca="false">SUM(V57:V69)</f>
         <v>0</v>
       </c>
-      <c r="W71" s="49" t="n">
+      <c r="W71" s="51" t="n">
         <f aca="false">SUM(W57:W69)</f>
         <v>0</v>
       </c>
-      <c r="X71" s="49" t="n">
+      <c r="X71" s="51" t="n">
         <f aca="false">SUM(X57:X69)</f>
         <v>0</v>
       </c>
-      <c r="Y71" s="49" t="n">
+      <c r="Y71" s="51" t="n">
         <f aca="false">SUM(Y57:Y69)</f>
         <v>0</v>
       </c>
-      <c r="Z71" s="51" t="n">
+      <c r="Z71" s="50" t="n">
         <f aca="false">SUM(Z57:Z69)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="51" t="n">
+      <c r="AA71" s="50" t="n">
         <f aca="false">SUM(AA57:AA69)</f>
         <v>0</v>
       </c>
-      <c r="AB71" s="51" t="n">
+      <c r="AB71" s="50" t="n">
         <f aca="false">SUM(AB57:AB69)</f>
         <v>0</v>
       </c>
-      <c r="AC71" s="51" t="n">
+      <c r="AC71" s="50" t="n">
         <f aca="false">SUM(AC57:AC69)</f>
         <v>0</v>
       </c>
-      <c r="AD71" s="51" t="n">
+      <c r="AD71" s="50" t="n">
         <f aca="false">SUM(AD57:AD69)</f>
         <v>0</v>
       </c>
-      <c r="AE71" s="51" t="n">
+      <c r="AE71" s="50" t="n">
         <f aca="false">SUM(AE57:AE69)</f>
         <v>0</v>
       </c>
-      <c r="AF71" s="51" t="n">
+      <c r="AF71" s="50" t="n">
         <f aca="false">SUM(AF57:AF69)</f>
         <v>0</v>
       </c>
-      <c r="AG71" s="51" t="n">
+      <c r="AG71" s="50" t="n">
         <f aca="false">SUM(AG57:AG69)</f>
         <v>0</v>
       </c>
-      <c r="AH71" s="51" t="n">
+      <c r="AH71" s="50" t="n">
         <f aca="false">SUM(AH57:AH69)</f>
         <v>0</v>
       </c>
-      <c r="AI71" s="51" t="n">
+      <c r="AI71" s="50" t="n">
         <f aca="false">SUM(AI57:AI69)</f>
         <v>0</v>
       </c>
-      <c r="AJ71" s="51" t="n">
+      <c r="AJ71" s="50" t="n">
         <f aca="false">SUM(AJ57:AJ69)</f>
         <v>0</v>
       </c>
-      <c r="AK71" s="51" t="n">
+      <c r="AK71" s="50" t="n">
         <f aca="false">SUM(AK57:AK69)</f>
         <v>0</v>
       </c>
-      <c r="AL71" s="51" t="n">
+      <c r="AL71" s="50" t="n">
         <f aca="false">SUM(AL57:AL69)</f>
         <v>0</v>
       </c>
-      <c r="AM71" s="51" t="n">
+      <c r="AM71" s="50" t="n">
         <f aca="false">SUM(AM57:AM69)</f>
         <v>0</v>
       </c>
-      <c r="AN71" s="51" t="n">
+      <c r="AN71" s="50" t="n">
         <f aca="false">SUM(AN57:AN69)</f>
         <v>0</v>
       </c>
-      <c r="AO71" s="51" t="n">
+      <c r="AO71" s="50" t="n">
         <f aca="false">SUM(AO57:AO69)</f>
         <v>0</v>
       </c>
-      <c r="AP71" s="51" t="n">
+      <c r="AP71" s="50" t="n">
         <f aca="false">SUM(AP57:AP69)</f>
         <v>0</v>
       </c>
-      <c r="AQ71" s="51" t="n">
+      <c r="AQ71" s="50" t="n">
         <f aca="false">SUM(AQ57:AQ69)</f>
         <v>0</v>
       </c>
-      <c r="AR71" s="51" t="n">
+      <c r="AR71" s="50" t="n">
         <f aca="false">SUM(AR57:AR69)</f>
         <v>0</v>
       </c>
-      <c r="AS71" s="51" t="n">
+      <c r="AS71" s="50" t="n">
         <f aca="false">SUM(AS57:AS69)</f>
         <v>0</v>
       </c>
-      <c r="AT71" s="51" t="n">
+      <c r="AT71" s="50" t="n">
         <f aca="false">SUM(AT57:AT69)</f>
         <v>0</v>
       </c>
-      <c r="AU71" s="51" t="n">
+      <c r="AU71" s="50" t="n">
         <f aca="false">SUM(AU57:AU69)</f>
         <v>0</v>
       </c>
-      <c r="AV71" s="51" t="n">
+      <c r="AV71" s="50" t="n">
         <f aca="false">SUM(AV57:AV69)</f>
         <v>0</v>
       </c>
-      <c r="AW71" s="51" t="n">
+      <c r="AW71" s="50" t="n">
         <f aca="false">SUM(AW57:AW69)</f>
         <v>0</v>
       </c>
-      <c r="AX71" s="51" t="n">
+      <c r="AX71" s="50" t="n">
         <f aca="false">SUM(AX57:AX69)</f>
         <v>0</v>
       </c>
-      <c r="AY71" s="51" t="n">
+      <c r="AY71" s="50" t="n">
         <f aca="false">SUM(AY57:AY69)</f>
         <v>0</v>
       </c>
-      <c r="AZ71" s="51" t="n">
+      <c r="AZ71" s="50" t="n">
         <f aca="false">SUM(AZ57:AZ69)</f>
         <v>0</v>
       </c>
-      <c r="BA71" s="51" t="n">
+      <c r="BA71" s="50" t="n">
         <f aca="false">SUM(BA57:BA69)</f>
         <v>0</v>
       </c>
-      <c r="BB71" s="51" t="n">
+      <c r="BB71" s="50" t="n">
         <f aca="false">SUM(BB57:BB69)</f>
         <v>0</v>
       </c>
-      <c r="BC71" s="51" t="n">
+      <c r="BC71" s="50" t="n">
         <f aca="false">SUM(BC57:BC69)</f>
         <v>0</v>
       </c>
-      <c r="BD71" s="51" t="n">
+      <c r="BD71" s="50" t="n">
         <f aca="false">SUM(BD57:BD69)</f>
         <v>0</v>
       </c>
-      <c r="BE71" s="51" t="n">
+      <c r="BE71" s="50" t="n">
         <f aca="false">SUM(BE57:BE69)</f>
         <v>0</v>
       </c>
-      <c r="BF71" s="51" t="n">
+      <c r="BF71" s="50" t="n">
         <f aca="false">SUM(BF57:BF69)</f>
         <v>0</v>
       </c>
-      <c r="BG71" s="51" t="n">
+      <c r="BG71" s="50" t="n">
         <f aca="false">SUM(BG57:BG69)</f>
         <v>0</v>
       </c>
-      <c r="BH71" s="51" t="n">
+      <c r="BH71" s="50" t="n">
         <f aca="false">SUM(BH57:BH69)</f>
         <v>0</v>
       </c>
-      <c r="BI71" s="51" t="n">
+      <c r="BI71" s="50" t="n">
         <f aca="false">SUM(BI57:BI69)</f>
         <v>0</v>
       </c>
-      <c r="BJ71" s="51" t="n">
+      <c r="BJ71" s="50" t="n">
         <f aca="false">SUM(BJ57:BJ69)</f>
         <v>0</v>
       </c>
-      <c r="BK71" s="51" t="n">
+      <c r="BK71" s="50" t="n">
         <f aca="false">SUM(BK57:BK69)</f>
         <v>0</v>
       </c>
-      <c r="BL71" s="51" t="n">
+      <c r="BL71" s="50" t="n">
         <f aca="false">SUM(BL57:BL69)</f>
         <v>0</v>
       </c>
-      <c r="BM71" s="51" t="n">
+      <c r="BM71" s="50" t="n">
         <f aca="false">SUM(BM57:BM69)</f>
         <v>0</v>
       </c>
-      <c r="BN71" s="51" t="n">
+      <c r="BN71" s="50" t="n">
         <f aca="false">SUM(BN57:BN69)</f>
         <v>0</v>
       </c>
-      <c r="BO71" s="51" t="n">
+      <c r="BO71" s="50" t="n">
         <f aca="false">SUM(BO57:BO69)</f>
         <v>0</v>
       </c>
-      <c r="BP71" s="51" t="n">
+      <c r="BP71" s="50" t="n">
         <f aca="false">SUM(BP57:BP69)</f>
         <v>0</v>
       </c>
-      <c r="BQ71" s="51" t="n">
+      <c r="BQ71" s="50" t="n">
         <f aca="false">SUM(BQ57:BQ69)</f>
         <v>0</v>
       </c>
-      <c r="BR71" s="51" t="n">
+      <c r="BR71" s="50" t="n">
         <f aca="false">SUM(BR57:BR69)</f>
         <v>0</v>
       </c>
-      <c r="BS71" s="51" t="n">
+      <c r="BS71" s="50" t="n">
         <f aca="false">SUM(BS57:BS69)</f>
         <v>0</v>
       </c>
-      <c r="BT71" s="51" t="n">
+      <c r="BT71" s="50" t="n">
         <f aca="false">SUM(BT57:BT69)</f>
         <v>0</v>
       </c>
-      <c r="BU71" s="51" t="n">
+      <c r="BU71" s="50" t="n">
         <f aca="false">SUM(BU57:BU69)</f>
         <v>0</v>
       </c>
-      <c r="BV71" s="51" t="n">
+      <c r="BV71" s="50" t="n">
         <f aca="false">SUM(BV57:BV69)</f>
         <v>0</v>
       </c>
-      <c r="BW71" s="51" t="n">
+      <c r="BW71" s="50" t="n">
         <f aca="false">SUM(BW57:BW69)</f>
         <v>0</v>
       </c>
-      <c r="BX71" s="51" t="n">
+      <c r="BX71" s="50" t="n">
         <f aca="false">SUM(BX57:BX69)</f>
         <v>0</v>
       </c>
-      <c r="BY71" s="51" t="n">
+      <c r="BY71" s="50" t="n">
         <f aca="false">SUM(BY57:BY69)</f>
         <v>0</v>
       </c>
-      <c r="BZ71" s="51" t="n">
+      <c r="BZ71" s="50" t="n">
         <f aca="false">SUM(BZ57:BZ69)</f>
         <v>0</v>
       </c>
-      <c r="CA71" s="51" t="n">
+      <c r="CA71" s="50" t="n">
         <f aca="false">SUM(CA57:CA69)</f>
         <v>0</v>
       </c>
-      <c r="CB71" s="51" t="n">
+      <c r="CB71" s="50" t="n">
         <f aca="false">SUM(CB57:CB69)</f>
         <v>0</v>
       </c>
-      <c r="CC71" s="51" t="n">
+      <c r="CC71" s="50" t="n">
         <f aca="false">SUM(CC57:CC69)</f>
         <v>0</v>
       </c>
-      <c r="CD71" s="51" t="n">
+      <c r="CD71" s="50" t="n">
         <f aca="false">SUM(CD57:CD69)</f>
         <v>0</v>
       </c>
-      <c r="CE71" s="51" t="n">
+      <c r="CE71" s="50" t="n">
         <f aca="false">SUM(CE57:CE69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="58" t="s">
+    <row r="72" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="23.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="30" t="n">
+      <c r="C73" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="31" t="n">
+      <c r="D73" s="32" t="n">
         <v>2</v>
       </c>
       <c r="E73" s="30" t="n">
@@ -35663,15 +35817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="58"/>
-      <c r="B74" s="59" t="s">
+    <row r="74" customFormat="false" ht="24" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="60"/>
+      <c r="B74" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="30" t="n">
+      <c r="C74" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="D74" s="31" t="n">
+      <c r="D74" s="32" t="n">
         <v>3</v>
       </c>
       <c r="E74" s="30" t="n">
@@ -35912,264 +36066,264 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="57" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="58"/>
-      <c r="B75" s="54" t="s">
+    <row r="75" s="59" customFormat="true" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="60"/>
+      <c r="B75" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="54" t="n">
+      <c r="C75" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="55" t="n">
+      <c r="D75" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="E75" s="54" t="n">
+      <c r="E75" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="F75" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD75" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE75" s="56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="58"/>
+      <c r="F75" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD75" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE75" s="58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="60"/>
       <c r="B76" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="30" t="n">
+      <c r="C76" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="D76" s="31" t="n">
+      <c r="D76" s="32" t="n">
         <v>3</v>
       </c>
       <c r="E76" s="30" t="n">
@@ -36410,9 +36564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="58"/>
-      <c r="D77" s="46"/>
+    <row r="77" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="60"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="45"/>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
@@ -36492,7 +36646,7 @@
       <c r="CD77" s="47"/>
       <c r="CE77" s="47"/>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="48" t="s">
         <v>164</v>
       </c>
@@ -36505,331 +36659,332 @@
         <f aca="false">SUM(D73:D76)</f>
         <v>10</v>
       </c>
-      <c r="E78" s="49" t="n">
+      <c r="E78" s="51" t="n">
         <f aca="false">SUM(E73:E76)</f>
         <v>7</v>
       </c>
-      <c r="F78" s="49" t="n">
+      <c r="F78" s="51" t="n">
         <f aca="false">SUM(F73:F76)</f>
         <v>0</v>
       </c>
-      <c r="G78" s="49" t="n">
+      <c r="G78" s="51" t="n">
         <f aca="false">SUM(G73:G76)</f>
         <v>0</v>
       </c>
-      <c r="H78" s="49" t="n">
+      <c r="H78" s="51" t="n">
         <f aca="false">SUM(H73:H76)</f>
         <v>0</v>
       </c>
-      <c r="I78" s="49" t="n">
+      <c r="I78" s="51" t="n">
         <f aca="false">SUM(I73:I76)</f>
         <v>0</v>
       </c>
-      <c r="J78" s="49" t="n">
+      <c r="J78" s="51" t="n">
         <f aca="false">SUM(J73:J76)</f>
         <v>0</v>
       </c>
-      <c r="K78" s="49" t="n">
+      <c r="K78" s="51" t="n">
         <f aca="false">SUM(K73:K76)</f>
         <v>0</v>
       </c>
-      <c r="L78" s="49" t="n">
+      <c r="L78" s="51" t="n">
         <f aca="false">SUM(L73:L76)</f>
         <v>0</v>
       </c>
-      <c r="M78" s="51" t="n">
+      <c r="M78" s="50" t="n">
         <f aca="false">SUM(M73:M76)</f>
         <v>0</v>
       </c>
-      <c r="N78" s="49" t="n">
+      <c r="N78" s="51" t="n">
         <f aca="false">SUM(N73:N76)</f>
         <v>0</v>
       </c>
-      <c r="O78" s="49" t="n">
+      <c r="O78" s="51" t="n">
         <f aca="false">SUM(O73:O76)</f>
         <v>0</v>
       </c>
-      <c r="P78" s="49" t="n">
+      <c r="P78" s="51" t="n">
         <f aca="false">SUM(P73:P76)</f>
         <v>0</v>
       </c>
-      <c r="Q78" s="49" t="n">
+      <c r="Q78" s="51" t="n">
         <f aca="false">SUM(Q73:Q76)</f>
         <v>0</v>
       </c>
-      <c r="R78" s="49" t="n">
+      <c r="R78" s="51" t="n">
         <f aca="false">SUM(R73:R76)</f>
         <v>0</v>
       </c>
-      <c r="S78" s="49" t="n">
+      <c r="S78" s="51" t="n">
         <f aca="false">SUM(S73:S76)</f>
         <v>0</v>
       </c>
-      <c r="T78" s="49" t="n">
+      <c r="T78" s="51" t="n">
         <f aca="false">SUM(T73:T76)</f>
         <v>0</v>
       </c>
-      <c r="U78" s="49" t="n">
+      <c r="U78" s="51" t="n">
         <f aca="false">SUM(U73:U76)</f>
         <v>0</v>
       </c>
-      <c r="V78" s="49" t="n">
+      <c r="V78" s="51" t="n">
         <f aca="false">SUM(V73:V76)</f>
         <v>0</v>
       </c>
-      <c r="W78" s="49" t="n">
+      <c r="W78" s="51" t="n">
         <f aca="false">SUM(W73:W76)</f>
         <v>0</v>
       </c>
-      <c r="X78" s="49" t="n">
+      <c r="X78" s="51" t="n">
         <f aca="false">SUM(X73:X76)</f>
         <v>0</v>
       </c>
-      <c r="Y78" s="49" t="n">
+      <c r="Y78" s="51" t="n">
         <f aca="false">SUM(Y73:Y76)</f>
         <v>0</v>
       </c>
-      <c r="Z78" s="51" t="n">
+      <c r="Z78" s="50" t="n">
         <f aca="false">SUM(Z73:Z76)</f>
         <v>0</v>
       </c>
-      <c r="AA78" s="51" t="n">
+      <c r="AA78" s="50" t="n">
         <f aca="false">SUM(AA73:AA76)</f>
         <v>0</v>
       </c>
-      <c r="AB78" s="51" t="n">
+      <c r="AB78" s="50" t="n">
         <f aca="false">SUM(AB73:AB76)</f>
         <v>0</v>
       </c>
-      <c r="AC78" s="51" t="n">
+      <c r="AC78" s="50" t="n">
         <f aca="false">SUM(AC73:AC76)</f>
         <v>0</v>
       </c>
-      <c r="AD78" s="51" t="n">
+      <c r="AD78" s="50" t="n">
         <f aca="false">SUM(AD73:AD76)</f>
         <v>0</v>
       </c>
-      <c r="AE78" s="51" t="n">
+      <c r="AE78" s="50" t="n">
         <f aca="false">SUM(AE73:AE76)</f>
         <v>0</v>
       </c>
-      <c r="AF78" s="51" t="n">
+      <c r="AF78" s="50" t="n">
         <f aca="false">SUM(AF73:AF76)</f>
         <v>0</v>
       </c>
-      <c r="AG78" s="51" t="n">
+      <c r="AG78" s="50" t="n">
         <f aca="false">SUM(AG73:AG76)</f>
         <v>0</v>
       </c>
-      <c r="AH78" s="51" t="n">
+      <c r="AH78" s="50" t="n">
         <f aca="false">SUM(AH73:AH76)</f>
         <v>0</v>
       </c>
-      <c r="AI78" s="51" t="n">
+      <c r="AI78" s="50" t="n">
         <f aca="false">SUM(AI73:AI76)</f>
         <v>0</v>
       </c>
-      <c r="AJ78" s="51" t="n">
+      <c r="AJ78" s="50" t="n">
         <f aca="false">SUM(AJ73:AJ76)</f>
         <v>0</v>
       </c>
-      <c r="AK78" s="51" t="n">
+      <c r="AK78" s="50" t="n">
         <f aca="false">SUM(AK73:AK76)</f>
         <v>0</v>
       </c>
-      <c r="AL78" s="51" t="n">
+      <c r="AL78" s="50" t="n">
         <f aca="false">SUM(AL73:AL76)</f>
         <v>0</v>
       </c>
-      <c r="AM78" s="51" t="n">
+      <c r="AM78" s="50" t="n">
         <f aca="false">SUM(AM73:AM76)</f>
         <v>0</v>
       </c>
-      <c r="AN78" s="51" t="n">
+      <c r="AN78" s="50" t="n">
         <f aca="false">SUM(AN73:AN76)</f>
         <v>0</v>
       </c>
-      <c r="AO78" s="51" t="n">
+      <c r="AO78" s="50" t="n">
         <f aca="false">SUM(AO73:AO76)</f>
         <v>0</v>
       </c>
-      <c r="AP78" s="51" t="n">
+      <c r="AP78" s="50" t="n">
         <f aca="false">SUM(AP73:AP76)</f>
         <v>0</v>
       </c>
-      <c r="AQ78" s="51" t="n">
+      <c r="AQ78" s="50" t="n">
         <f aca="false">SUM(AQ73:AQ76)</f>
         <v>0</v>
       </c>
-      <c r="AR78" s="51" t="n">
+      <c r="AR78" s="50" t="n">
         <f aca="false">SUM(AR73:AR76)</f>
         <v>0</v>
       </c>
-      <c r="AS78" s="51" t="n">
+      <c r="AS78" s="50" t="n">
         <f aca="false">SUM(AS73:AS76)</f>
         <v>0</v>
       </c>
-      <c r="AT78" s="51" t="n">
+      <c r="AT78" s="50" t="n">
         <f aca="false">SUM(AT73:AT76)</f>
         <v>0</v>
       </c>
-      <c r="AU78" s="51" t="n">
+      <c r="AU78" s="50" t="n">
         <f aca="false">SUM(AU73:AU76)</f>
         <v>0</v>
       </c>
-      <c r="AV78" s="51" t="n">
+      <c r="AV78" s="50" t="n">
         <f aca="false">SUM(AV73:AV76)</f>
         <v>0</v>
       </c>
-      <c r="AW78" s="51" t="n">
+      <c r="AW78" s="50" t="n">
         <f aca="false">SUM(AW73:AW76)</f>
         <v>0</v>
       </c>
-      <c r="AX78" s="51" t="n">
+      <c r="AX78" s="50" t="n">
         <f aca="false">SUM(AX73:AX76)</f>
         <v>0</v>
       </c>
-      <c r="AY78" s="51" t="n">
+      <c r="AY78" s="50" t="n">
         <f aca="false">SUM(AY73:AY76)</f>
         <v>0</v>
       </c>
-      <c r="AZ78" s="51" t="n">
+      <c r="AZ78" s="50" t="n">
         <f aca="false">SUM(AZ73:AZ76)</f>
         <v>0</v>
       </c>
-      <c r="BA78" s="51" t="n">
+      <c r="BA78" s="50" t="n">
         <f aca="false">SUM(BA73:BA76)</f>
         <v>0</v>
       </c>
-      <c r="BB78" s="51" t="n">
+      <c r="BB78" s="50" t="n">
         <f aca="false">SUM(BB73:BB76)</f>
         <v>0</v>
       </c>
-      <c r="BC78" s="51" t="n">
+      <c r="BC78" s="50" t="n">
         <f aca="false">SUM(BC73:BC76)</f>
         <v>0</v>
       </c>
-      <c r="BD78" s="51" t="n">
+      <c r="BD78" s="50" t="n">
         <f aca="false">SUM(BD73:BD76)</f>
         <v>0</v>
       </c>
-      <c r="BE78" s="51" t="n">
+      <c r="BE78" s="50" t="n">
         <f aca="false">SUM(BE73:BE76)</f>
         <v>0</v>
       </c>
-      <c r="BF78" s="51" t="n">
+      <c r="BF78" s="50" t="n">
         <f aca="false">SUM(BF73:BF76)</f>
         <v>0</v>
       </c>
-      <c r="BG78" s="51" t="n">
+      <c r="BG78" s="50" t="n">
         <f aca="false">SUM(BG73:BG76)</f>
         <v>0</v>
       </c>
-      <c r="BH78" s="51" t="n">
+      <c r="BH78" s="50" t="n">
         <f aca="false">SUM(BH73:BH76)</f>
         <v>0</v>
       </c>
-      <c r="BI78" s="51" t="n">
+      <c r="BI78" s="50" t="n">
         <f aca="false">SUM(BI73:BI76)</f>
         <v>0</v>
       </c>
-      <c r="BJ78" s="51" t="n">
+      <c r="BJ78" s="50" t="n">
         <f aca="false">SUM(BJ73:BJ76)</f>
         <v>0</v>
       </c>
-      <c r="BK78" s="51" t="n">
+      <c r="BK78" s="50" t="n">
         <f aca="false">SUM(BK73:BK76)</f>
         <v>0</v>
       </c>
-      <c r="BL78" s="51" t="n">
+      <c r="BL78" s="50" t="n">
         <f aca="false">SUM(BL73:BL76)</f>
         <v>0</v>
       </c>
-      <c r="BM78" s="51" t="n">
+      <c r="BM78" s="50" t="n">
         <f aca="false">SUM(BM73:BM76)</f>
         <v>0</v>
       </c>
-      <c r="BN78" s="51" t="n">
+      <c r="BN78" s="50" t="n">
         <f aca="false">SUM(BN73:BN76)</f>
         <v>0</v>
       </c>
-      <c r="BO78" s="51" t="n">
+      <c r="BO78" s="50" t="n">
         <f aca="false">SUM(BO73:BO76)</f>
         <v>0</v>
       </c>
-      <c r="BP78" s="51" t="n">
+      <c r="BP78" s="50" t="n">
         <f aca="false">SUM(BP73:BP76)</f>
         <v>0</v>
       </c>
-      <c r="BQ78" s="51" t="n">
+      <c r="BQ78" s="50" t="n">
         <f aca="false">SUM(BQ73:BQ76)</f>
         <v>0</v>
       </c>
-      <c r="BR78" s="51" t="n">
+      <c r="BR78" s="50" t="n">
         <f aca="false">SUM(BR73:BR76)</f>
         <v>0</v>
       </c>
-      <c r="BS78" s="51" t="n">
+      <c r="BS78" s="50" t="n">
         <f aca="false">SUM(BS73:BS76)</f>
         <v>0</v>
       </c>
-      <c r="BT78" s="51" t="n">
+      <c r="BT78" s="50" t="n">
         <f aca="false">SUM(BT73:BT76)</f>
         <v>0</v>
       </c>
-      <c r="BU78" s="51" t="n">
+      <c r="BU78" s="50" t="n">
         <f aca="false">SUM(BU73:BU76)</f>
         <v>0</v>
       </c>
-      <c r="BV78" s="51" t="n">
+      <c r="BV78" s="50" t="n">
         <f aca="false">SUM(BV73:BV76)</f>
         <v>0</v>
       </c>
-      <c r="BW78" s="51" t="n">
+      <c r="BW78" s="50" t="n">
         <f aca="false">SUM(BW73:BW76)</f>
         <v>0</v>
       </c>
-      <c r="BX78" s="51" t="n">
+      <c r="BX78" s="50" t="n">
         <f aca="false">SUM(BX73:BX76)</f>
         <v>0</v>
       </c>
-      <c r="BY78" s="51" t="n">
+      <c r="BY78" s="50" t="n">
         <f aca="false">SUM(BY73:BY76)</f>
         <v>0</v>
       </c>
-      <c r="BZ78" s="51" t="n">
+      <c r="BZ78" s="50" t="n">
         <f aca="false">SUM(BZ73:BZ76)</f>
         <v>0</v>
       </c>
-      <c r="CA78" s="51" t="n">
+      <c r="CA78" s="50" t="n">
         <f aca="false">SUM(CA73:CA76)</f>
         <v>0</v>
       </c>
-      <c r="CB78" s="51" t="n">
+      <c r="CB78" s="50" t="n">
         <f aca="false">SUM(CB73:CB76)</f>
         <v>0</v>
       </c>
-      <c r="CC78" s="51" t="n">
+      <c r="CC78" s="50" t="n">
         <f aca="false">SUM(CC73:CC76)</f>
         <v>0</v>
       </c>
-      <c r="CD78" s="51" t="n">
+      <c r="CD78" s="50" t="n">
         <f aca="false">SUM(CD73:CD76)</f>
         <v>0</v>
       </c>
-      <c r="CE78" s="51" t="n">
+      <c r="CE78" s="50" t="n">
         <f aca="false">SUM(CE73:CE76)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B80" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D80" s="31" t="n">
+      <c r="D80" s="32" t="n">
         <v>0.1</v>
       </c>
       <c r="E80" s="30" t="n">
@@ -37070,17 +37225,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="60" t="s">
+    <row r="81" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" s="64" customFormat="true" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="62" t="s">
         <v>168</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="46" t="n">
+      <c r="C82" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="47" t="n">
         <v>10</v>
       </c>
       <c r="E82" s="47" t="n">
@@ -37321,106 +37477,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
-      <c r="D84" s="62" t="s">
+      <c r="D84" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="62"/>
-      <c r="S84" s="62"/>
-      <c r="T84" s="62"/>
-      <c r="U84" s="62"/>
-      <c r="V84" s="62"/>
-      <c r="W84" s="62"/>
-      <c r="X84" s="62"/>
-      <c r="Y84" s="62"/>
-      <c r="Z84" s="62"/>
-      <c r="AA84" s="62"/>
-      <c r="AB84" s="62"/>
-      <c r="AC84" s="62"/>
-      <c r="AD84" s="62"/>
-      <c r="AE84" s="62"/>
-      <c r="AF84" s="62"/>
-      <c r="AG84" s="62"/>
-      <c r="AH84" s="62"/>
-      <c r="AI84" s="62"/>
-      <c r="AJ84" s="62"/>
-      <c r="AK84" s="62"/>
-      <c r="AL84" s="62"/>
-      <c r="AM84" s="62"/>
-      <c r="AN84" s="62"/>
-      <c r="AO84" s="62"/>
-      <c r="AP84" s="62"/>
-      <c r="AQ84" s="62"/>
-      <c r="AR84" s="62"/>
-      <c r="AS84" s="62"/>
-      <c r="AT84" s="62"/>
-      <c r="AU84" s="62"/>
-      <c r="AV84" s="62"/>
-      <c r="AW84" s="62"/>
-      <c r="AX84" s="62"/>
-      <c r="AY84" s="62"/>
-      <c r="AZ84" s="62"/>
-      <c r="BA84" s="62"/>
-      <c r="BB84" s="62"/>
-      <c r="BC84" s="62"/>
-      <c r="BD84" s="62"/>
-      <c r="BE84" s="62"/>
-      <c r="BF84" s="62"/>
-      <c r="BG84" s="62"/>
-      <c r="BH84" s="62"/>
-      <c r="BI84" s="62"/>
-      <c r="BJ84" s="62"/>
-      <c r="BK84" s="62"/>
-      <c r="BL84" s="62"/>
-      <c r="BM84" s="62"/>
-      <c r="BN84" s="62"/>
-      <c r="BO84" s="62"/>
-      <c r="BP84" s="62"/>
-      <c r="BQ84" s="62"/>
-      <c r="BR84" s="62"/>
-      <c r="BS84" s="62"/>
-      <c r="BT84" s="62"/>
-      <c r="BU84" s="62"/>
-      <c r="BV84" s="62"/>
-      <c r="BW84" s="62"/>
-      <c r="BX84" s="62"/>
-      <c r="BY84" s="62"/>
-      <c r="BZ84" s="62"/>
-      <c r="CA84" s="62"/>
-      <c r="CB84" s="62"/>
-      <c r="CC84" s="62"/>
-      <c r="CD84" s="62"/>
-      <c r="CE84" s="62"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="65"/>
+      <c r="Q84" s="65"/>
+      <c r="R84" s="65"/>
+      <c r="S84" s="65"/>
+      <c r="T84" s="65"/>
+      <c r="U84" s="65"/>
+      <c r="V84" s="65"/>
+      <c r="W84" s="65"/>
+      <c r="X84" s="65"/>
+      <c r="Y84" s="65"/>
+      <c r="Z84" s="65"/>
+      <c r="AA84" s="65"/>
+      <c r="AB84" s="65"/>
+      <c r="AC84" s="65"/>
+      <c r="AD84" s="65"/>
+      <c r="AE84" s="65"/>
+      <c r="AF84" s="65"/>
+      <c r="AG84" s="65"/>
+      <c r="AH84" s="65"/>
+      <c r="AI84" s="65"/>
+      <c r="AJ84" s="65"/>
+      <c r="AK84" s="65"/>
+      <c r="AL84" s="65"/>
+      <c r="AM84" s="65"/>
+      <c r="AN84" s="65"/>
+      <c r="AO84" s="65"/>
+      <c r="AP84" s="65"/>
+      <c r="AQ84" s="65"/>
+      <c r="AR84" s="65"/>
+      <c r="AS84" s="65"/>
+      <c r="AT84" s="65"/>
+      <c r="AU84" s="65"/>
+      <c r="AV84" s="65"/>
+      <c r="AW84" s="65"/>
+      <c r="AX84" s="65"/>
+      <c r="AY84" s="65"/>
+      <c r="AZ84" s="65"/>
+      <c r="BA84" s="65"/>
+      <c r="BB84" s="65"/>
+      <c r="BC84" s="65"/>
+      <c r="BD84" s="65"/>
+      <c r="BE84" s="65"/>
+      <c r="BF84" s="65"/>
+      <c r="BG84" s="65"/>
+      <c r="BH84" s="65"/>
+      <c r="BI84" s="65"/>
+      <c r="BJ84" s="65"/>
+      <c r="BK84" s="65"/>
+      <c r="BL84" s="65"/>
+      <c r="BM84" s="65"/>
+      <c r="BN84" s="65"/>
+      <c r="BO84" s="65"/>
+      <c r="BP84" s="65"/>
+      <c r="BQ84" s="65"/>
+      <c r="BR84" s="65"/>
+      <c r="BS84" s="65"/>
+      <c r="BT84" s="65"/>
+      <c r="BU84" s="65"/>
+      <c r="BV84" s="65"/>
+      <c r="BW84" s="65"/>
+      <c r="BX84" s="65"/>
+      <c r="BY84" s="65"/>
+      <c r="BZ84" s="65"/>
+      <c r="CA84" s="65"/>
+      <c r="CB84" s="65"/>
+      <c r="CC84" s="65"/>
+      <c r="CD84" s="65"/>
+      <c r="CE84" s="65"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B86" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="45" t="n">
+      <c r="C86" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D86" s="46" t="n">
+      <c r="D86" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E86" s="45" t="n">
@@ -37661,17 +37819,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B87" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="45" t="n">
+      <c r="C87" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="46" t="n">
+      <c r="D87" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E87" s="45" t="n">
@@ -37912,17 +38070,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B88" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="45" t="n">
+      <c r="C88" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D88" s="46" t="n">
+      <c r="D88" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="45" t="n">
@@ -38163,17 +38321,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B89" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="45" t="n">
+      <c r="C89" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D89" s="46" t="n">
+      <c r="D89" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="45" t="n">
@@ -38414,17 +38572,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="24" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="45" t="n">
+      <c r="C90" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D90" s="46" t="n">
+      <c r="D90" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E90" s="45" t="n">
@@ -38665,17 +38823,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="24" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B91" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="45" t="n">
+      <c r="C91" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D91" s="46" t="n">
+      <c r="D91" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E91" s="45" t="n">
@@ -38916,17 +39074,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="58" t="s">
+    <row r="92" customFormat="false" ht="24" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B92" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="45" t="n">
+      <c r="C92" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="D92" s="46" t="n">
+      <c r="D92" s="47" t="n">
         <v>2</v>
       </c>
       <c r="E92" s="45" t="n">
@@ -39167,17 +39325,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="24" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="45" t="n">
+      <c r="C93" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="D93" s="46" t="n">
+      <c r="D93" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E93" s="45" t="n">
@@ -39418,7 +39576,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="48" t="s">
         <v>186</v>
       </c>
@@ -39431,325 +39590,326 @@
         <f aca="false">SUM(D86:D93)</f>
         <v>10</v>
       </c>
-      <c r="E95" s="49" t="n">
+      <c r="E95" s="51" t="n">
         <f aca="false">SUM(E86:E93)</f>
         <v>7</v>
       </c>
-      <c r="F95" s="49" t="n">
+      <c r="F95" s="51" t="n">
         <f aca="false">SUM(F86:F93)</f>
         <v>5</v>
       </c>
-      <c r="G95" s="49" t="n">
+      <c r="G95" s="51" t="n">
         <f aca="false">SUM(G86:G93)</f>
         <v>0</v>
       </c>
-      <c r="H95" s="49" t="n">
+      <c r="H95" s="51" t="n">
         <f aca="false">SUM(H86:H93)</f>
         <v>0</v>
       </c>
-      <c r="I95" s="49" t="n">
+      <c r="I95" s="51" t="n">
         <f aca="false">SUM(I86:I93)</f>
         <v>0</v>
       </c>
-      <c r="J95" s="49" t="n">
+      <c r="J95" s="51" t="n">
         <f aca="false">SUM(J86:J93)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="49" t="n">
+      <c r="K95" s="51" t="n">
         <f aca="false">SUM(K86:K93)</f>
         <v>0</v>
       </c>
-      <c r="L95" s="49" t="n">
+      <c r="L95" s="51" t="n">
         <f aca="false">SUM(L86:L93)</f>
         <v>0</v>
       </c>
-      <c r="M95" s="51" t="n">
+      <c r="M95" s="50" t="n">
         <f aca="false">SUM(M86:M93)</f>
         <v>0</v>
       </c>
-      <c r="N95" s="49" t="n">
+      <c r="N95" s="51" t="n">
         <f aca="false">SUM(N86:N93)</f>
         <v>0</v>
       </c>
-      <c r="O95" s="49" t="n">
+      <c r="O95" s="51" t="n">
         <f aca="false">SUM(O86:O93)</f>
         <v>0</v>
       </c>
-      <c r="P95" s="49" t="n">
+      <c r="P95" s="51" t="n">
         <f aca="false">SUM(P86:P93)</f>
         <v>0</v>
       </c>
-      <c r="Q95" s="49" t="n">
+      <c r="Q95" s="51" t="n">
         <f aca="false">SUM(Q86:Q93)</f>
         <v>0</v>
       </c>
-      <c r="R95" s="49" t="n">
+      <c r="R95" s="51" t="n">
         <f aca="false">SUM(R86:R93)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="49" t="n">
+      <c r="S95" s="51" t="n">
         <f aca="false">SUM(S86:S93)</f>
         <v>0</v>
       </c>
-      <c r="T95" s="49" t="n">
+      <c r="T95" s="51" t="n">
         <f aca="false">SUM(T86:T93)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="49" t="n">
+      <c r="U95" s="51" t="n">
         <f aca="false">SUM(U86:U93)</f>
         <v>0</v>
       </c>
-      <c r="V95" s="49" t="n">
+      <c r="V95" s="51" t="n">
         <f aca="false">SUM(V86:V93)</f>
         <v>0</v>
       </c>
-      <c r="W95" s="49" t="n">
+      <c r="W95" s="51" t="n">
         <f aca="false">SUM(W86:W93)</f>
         <v>0</v>
       </c>
-      <c r="X95" s="49" t="n">
+      <c r="X95" s="51" t="n">
         <f aca="false">SUM(X86:X93)</f>
         <v>0</v>
       </c>
-      <c r="Y95" s="49" t="n">
+      <c r="Y95" s="51" t="n">
         <f aca="false">SUM(Y86:Y93)</f>
         <v>0</v>
       </c>
-      <c r="Z95" s="51" t="n">
+      <c r="Z95" s="50" t="n">
         <f aca="false">SUM(Z86:Z93)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="51" t="n">
+      <c r="AA95" s="50" t="n">
         <f aca="false">SUM(AA86:AA93)</f>
         <v>0</v>
       </c>
-      <c r="AB95" s="51" t="n">
+      <c r="AB95" s="50" t="n">
         <f aca="false">SUM(AB86:AB93)</f>
         <v>0</v>
       </c>
-      <c r="AC95" s="51" t="n">
+      <c r="AC95" s="50" t="n">
         <f aca="false">SUM(AC86:AC93)</f>
         <v>0</v>
       </c>
-      <c r="AD95" s="51" t="n">
+      <c r="AD95" s="50" t="n">
         <f aca="false">SUM(AD86:AD93)</f>
         <v>0</v>
       </c>
-      <c r="AE95" s="51" t="n">
+      <c r="AE95" s="50" t="n">
         <f aca="false">SUM(AE86:AE93)</f>
         <v>0</v>
       </c>
-      <c r="AF95" s="51" t="n">
+      <c r="AF95" s="50" t="n">
         <f aca="false">SUM(AF86:AF93)</f>
         <v>0</v>
       </c>
-      <c r="AG95" s="51" t="n">
+      <c r="AG95" s="50" t="n">
         <f aca="false">SUM(AG86:AG93)</f>
         <v>0</v>
       </c>
-      <c r="AH95" s="51" t="n">
+      <c r="AH95" s="50" t="n">
         <f aca="false">SUM(AH86:AH93)</f>
         <v>0</v>
       </c>
-      <c r="AI95" s="51" t="n">
+      <c r="AI95" s="50" t="n">
         <f aca="false">SUM(AI86:AI93)</f>
         <v>0</v>
       </c>
-      <c r="AJ95" s="51" t="n">
+      <c r="AJ95" s="50" t="n">
         <f aca="false">SUM(AJ86:AJ93)</f>
         <v>0</v>
       </c>
-      <c r="AK95" s="51" t="n">
+      <c r="AK95" s="50" t="n">
         <f aca="false">SUM(AK86:AK93)</f>
         <v>0</v>
       </c>
-      <c r="AL95" s="51" t="n">
+      <c r="AL95" s="50" t="n">
         <f aca="false">SUM(AL86:AL93)</f>
         <v>0</v>
       </c>
-      <c r="AM95" s="51" t="n">
+      <c r="AM95" s="50" t="n">
         <f aca="false">SUM(AM86:AM93)</f>
         <v>0</v>
       </c>
-      <c r="AN95" s="51" t="n">
+      <c r="AN95" s="50" t="n">
         <f aca="false">SUM(AN86:AN93)</f>
         <v>0</v>
       </c>
-      <c r="AO95" s="51" t="n">
+      <c r="AO95" s="50" t="n">
         <f aca="false">SUM(AO86:AO93)</f>
         <v>0</v>
       </c>
-      <c r="AP95" s="51" t="n">
+      <c r="AP95" s="50" t="n">
         <f aca="false">SUM(AP86:AP93)</f>
         <v>0</v>
       </c>
-      <c r="AQ95" s="51" t="n">
+      <c r="AQ95" s="50" t="n">
         <f aca="false">SUM(AQ86:AQ93)</f>
         <v>0</v>
       </c>
-      <c r="AR95" s="51" t="n">
+      <c r="AR95" s="50" t="n">
         <f aca="false">SUM(AR86:AR93)</f>
         <v>0</v>
       </c>
-      <c r="AS95" s="51" t="n">
+      <c r="AS95" s="50" t="n">
         <f aca="false">SUM(AS86:AS93)</f>
         <v>0</v>
       </c>
-      <c r="AT95" s="51" t="n">
+      <c r="AT95" s="50" t="n">
         <f aca="false">SUM(AT86:AT93)</f>
         <v>0</v>
       </c>
-      <c r="AU95" s="51" t="n">
+      <c r="AU95" s="50" t="n">
         <f aca="false">SUM(AU86:AU93)</f>
         <v>0</v>
       </c>
-      <c r="AV95" s="51" t="n">
+      <c r="AV95" s="50" t="n">
         <f aca="false">SUM(AV86:AV93)</f>
         <v>0</v>
       </c>
-      <c r="AW95" s="51" t="n">
+      <c r="AW95" s="50" t="n">
         <f aca="false">SUM(AW86:AW93)</f>
         <v>0</v>
       </c>
-      <c r="AX95" s="51" t="n">
+      <c r="AX95" s="50" t="n">
         <f aca="false">SUM(AX86:AX93)</f>
         <v>0</v>
       </c>
-      <c r="AY95" s="51" t="n">
+      <c r="AY95" s="50" t="n">
         <f aca="false">SUM(AY86:AY93)</f>
         <v>0</v>
       </c>
-      <c r="AZ95" s="51" t="n">
+      <c r="AZ95" s="50" t="n">
         <f aca="false">SUM(AZ86:AZ93)</f>
         <v>0</v>
       </c>
-      <c r="BA95" s="51" t="n">
+      <c r="BA95" s="50" t="n">
         <f aca="false">SUM(BA86:BA93)</f>
         <v>0</v>
       </c>
-      <c r="BB95" s="51" t="n">
+      <c r="BB95" s="50" t="n">
         <f aca="false">SUM(BB86:BB93)</f>
         <v>0</v>
       </c>
-      <c r="BC95" s="51" t="n">
+      <c r="BC95" s="50" t="n">
         <f aca="false">SUM(BC86:BC93)</f>
         <v>0</v>
       </c>
-      <c r="BD95" s="51" t="n">
+      <c r="BD95" s="50" t="n">
         <f aca="false">SUM(BD86:BD93)</f>
         <v>0</v>
       </c>
-      <c r="BE95" s="51" t="n">
+      <c r="BE95" s="50" t="n">
         <f aca="false">SUM(BE86:BE93)</f>
         <v>0</v>
       </c>
-      <c r="BF95" s="51" t="n">
+      <c r="BF95" s="50" t="n">
         <f aca="false">SUM(BF86:BF93)</f>
         <v>0</v>
       </c>
-      <c r="BG95" s="51" t="n">
+      <c r="BG95" s="50" t="n">
         <f aca="false">SUM(BG86:BG93)</f>
         <v>0</v>
       </c>
-      <c r="BH95" s="51" t="n">
+      <c r="BH95" s="50" t="n">
         <f aca="false">SUM(BH86:BH93)</f>
         <v>0</v>
       </c>
-      <c r="BI95" s="51" t="n">
+      <c r="BI95" s="50" t="n">
         <f aca="false">SUM(BI86:BI93)</f>
         <v>0</v>
       </c>
-      <c r="BJ95" s="51" t="n">
+      <c r="BJ95" s="50" t="n">
         <f aca="false">SUM(BJ86:BJ93)</f>
         <v>0</v>
       </c>
-      <c r="BK95" s="51" t="n">
+      <c r="BK95" s="50" t="n">
         <f aca="false">SUM(BK86:BK93)</f>
         <v>0</v>
       </c>
-      <c r="BL95" s="51" t="n">
+      <c r="BL95" s="50" t="n">
         <f aca="false">SUM(BL86:BL93)</f>
         <v>0</v>
       </c>
-      <c r="BM95" s="51" t="n">
+      <c r="BM95" s="50" t="n">
         <f aca="false">SUM(BM86:BM93)</f>
         <v>0</v>
       </c>
-      <c r="BN95" s="51" t="n">
+      <c r="BN95" s="50" t="n">
         <f aca="false">SUM(BN86:BN93)</f>
         <v>0</v>
       </c>
-      <c r="BO95" s="51" t="n">
+      <c r="BO95" s="50" t="n">
         <f aca="false">SUM(BO86:BO93)</f>
         <v>0</v>
       </c>
-      <c r="BP95" s="51" t="n">
+      <c r="BP95" s="50" t="n">
         <f aca="false">SUM(BP86:BP93)</f>
         <v>0</v>
       </c>
-      <c r="BQ95" s="51" t="n">
+      <c r="BQ95" s="50" t="n">
         <f aca="false">SUM(BQ86:BQ93)</f>
         <v>0</v>
       </c>
-      <c r="BR95" s="51" t="n">
+      <c r="BR95" s="50" t="n">
         <f aca="false">SUM(BR86:BR93)</f>
         <v>0</v>
       </c>
-      <c r="BS95" s="51" t="n">
+      <c r="BS95" s="50" t="n">
         <f aca="false">SUM(BS86:BS93)</f>
         <v>0</v>
       </c>
-      <c r="BT95" s="51" t="n">
+      <c r="BT95" s="50" t="n">
         <f aca="false">SUM(BT86:BT93)</f>
         <v>0</v>
       </c>
-      <c r="BU95" s="51" t="n">
+      <c r="BU95" s="50" t="n">
         <f aca="false">SUM(BU86:BU93)</f>
         <v>0</v>
       </c>
-      <c r="BV95" s="51" t="n">
+      <c r="BV95" s="50" t="n">
         <f aca="false">SUM(BV86:BV93)</f>
         <v>0</v>
       </c>
-      <c r="BW95" s="51" t="n">
+      <c r="BW95" s="50" t="n">
         <f aca="false">SUM(BW86:BW93)</f>
         <v>0</v>
       </c>
-      <c r="BX95" s="51" t="n">
+      <c r="BX95" s="50" t="n">
         <f aca="false">SUM(BX86:BX93)</f>
         <v>0</v>
       </c>
-      <c r="BY95" s="51" t="n">
+      <c r="BY95" s="50" t="n">
         <f aca="false">SUM(BY86:BY93)</f>
         <v>0</v>
       </c>
-      <c r="BZ95" s="51" t="n">
+      <c r="BZ95" s="50" t="n">
         <f aca="false">SUM(BZ86:BZ93)</f>
         <v>0</v>
       </c>
-      <c r="CA95" s="51" t="n">
+      <c r="CA95" s="50" t="n">
         <f aca="false">SUM(CA86:CA93)</f>
         <v>0</v>
       </c>
-      <c r="CB95" s="51" t="n">
+      <c r="CB95" s="50" t="n">
         <f aca="false">SUM(CB86:CB93)</f>
         <v>0</v>
       </c>
-      <c r="CC95" s="51" t="n">
+      <c r="CC95" s="50" t="n">
         <f aca="false">SUM(CC86:CC93)</f>
         <v>0</v>
       </c>
-      <c r="CD95" s="51" t="n">
+      <c r="CD95" s="50" t="n">
         <f aca="false">SUM(CD86:CD93)</f>
         <v>0</v>
       </c>
-      <c r="CE95" s="51" t="n">
+      <c r="CE95" s="50" t="n">
         <f aca="false">SUM(CE86:CE93)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="37" t="s">
+    <row r="96" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="38" t="s">
         <v>20</v>
       </c>
       <c r="E97" s="36" t="s">
@@ -39990,6 +40150,17 @@
         <v>99</v>
       </c>
     </row>
+    <row r="98" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="A1:C1"/>
@@ -40032,6 +40203,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -40120,11 +40292,11 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">COUNTIF(Results!$O:$O,A1)</f>
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">COUNTIF(Results!$O:$O,B1)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">COUNTIF(Results!$O:$O,C1)</f>
@@ -40148,11 +40320,11 @@
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">COUNTIF(Results!$O:$O,H1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">COUNTIF(Results!$O:$O,I1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">COUNTIF(Results!$O:$O,J1)</f>
@@ -40204,44 +40376,44 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="68" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="66" t="n">
+      <c r="A39" s="69" t="n">
         <v>2021</v>
       </c>
-      <c r="B39" s="67" t="n">
+      <c r="B39" s="70" t="n">
         <f aca="false">AVERAGE(Results!N:N)</f>
-        <v>0.27125</v>
-      </c>
-      <c r="C39" s="67" t="n">
+        <v>0.29875</v>
+      </c>
+      <c r="C39" s="70" t="n">
         <f aca="false">MEDIAN(Results!N:N)</f>
         <v>0</v>
       </c>
       <c r="D39" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(Results!N:N)</f>
-        <v>1.46186471244777</v>
+        <v>1.46564778766933</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="66" t="n">
+      <c r="A40" s="69" t="n">
         <v>2020</v>
       </c>
-      <c r="B40" s="67" t="n">
+      <c r="B40" s="70" t="n">
         <v>8.19</v>
       </c>
-      <c r="C40" s="67" t="n">
+      <c r="C40" s="70" t="n">
         <v>8.6</v>
       </c>
       <c r="D40" s="0" t="n">
@@ -40249,7 +40421,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="66" t="n">
+      <c r="A41" s="69" t="n">
         <v>2019</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -40263,7 +40435,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="66" t="n">
+      <c r="A42" s="69" t="n">
         <v>2018</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -40295,7 +40467,7 @@
   </sheetPr>
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -43412,7 +43584,7 @@
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">'Detailed Results'!$E$53</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">'Detailed Results'!$E$71</f>
@@ -43440,7 +43612,7 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">'Detailed Results'!$F$53</f>
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">'Detailed Results'!$F$71</f>
@@ -43468,7 +43640,7 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">'Detailed Results'!$G$53</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">'Detailed Results'!$G$71</f>
@@ -43496,7 +43668,7 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">'Detailed Results'!$H$53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">'Detailed Results'!$H$71</f>
@@ -43524,7 +43696,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">'Detailed Results'!$I$53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">'Detailed Results'!$I$71</f>
@@ -43552,7 +43724,7 @@
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">'Detailed Results'!$J$53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">'Detailed Results'!$J$71</f>
@@ -43580,7 +43752,7 @@
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">'Detailed Results'!$K$53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">'Detailed Results'!$K$71</f>
@@ -43608,7 +43780,7 @@
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">'Detailed Results'!$L$53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">'Detailed Results'!$L$71</f>
@@ -43636,7 +43808,7 @@
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">'Detailed Results'!$M$53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">'Detailed Results'!$M$71</f>
@@ -43664,7 +43836,7 @@
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">'Detailed Results'!$N$53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">'Detailed Results'!$N$71</f>
@@ -43692,7 +43864,7 @@
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">'Detailed Results'!$O$53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">'Detailed Results'!$O$71</f>
@@ -45587,7 +45759,7 @@
       <c r="A160" s="1"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="68" t="n">
+      <c r="A161" s="71" t="n">
         <v>80</v>
       </c>
       <c r="B161" s="0" t="n">
